--- a/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
@@ -1562,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>410.75346</v>
+        <v>683.89986</v>
       </c>
       <c r="AA2">
-        <v>407.97897</v>
+        <v>684.1203300000001</v>
       </c>
       <c r="AB2">
-        <v>409.36621</v>
-      </c>
-      <c r="AC2">
-        <v>2.7744884</v>
+        <v>684.01009</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>-0.22046725</v>
       </c>
       <c r="AD2">
-        <v>-906.5686000000001</v>
+        <v>-901.86342</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -2541,19 +2541,19 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>410.75346</v>
+        <v>683.89986</v>
       </c>
       <c r="AA4" s="1">
-        <v>407.97897</v>
+        <v>684.1203300000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>409.36621</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2.7744884</v>
+        <v>684.01009</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>-0.22046725</v>
       </c>
       <c r="AD4" s="1">
-        <v>-906.5686000000001</v>
+        <v>-901.86342</v>
       </c>
       <c r="AE4" s="1">
         <v>0</v>
@@ -3008,19 +3008,19 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>410.75346</v>
+        <v>683.89986</v>
       </c>
       <c r="AA5" s="1">
-        <v>407.97897</v>
+        <v>684.1203300000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>409.36621</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>2.7744884</v>
+        <v>684.01009</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-0.22046725</v>
       </c>
       <c r="AD5" s="1">
-        <v>-906.5686000000001</v>
+        <v>-901.86342</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -3636,88 +3636,88 @@
         <v>0</v>
       </c>
       <c r="CI7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CJ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CK7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CL7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CM7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CN7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CO7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CP7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CQ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CR7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CS7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CT7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CU7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CV7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CW7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CX7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CY7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CZ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DA7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DB7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DC7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DD7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DE7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DF7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DG7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DH7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DI7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DJ7" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DK7" s="1">
         <v>0</v>
@@ -3997,88 +3997,88 @@
         <v>0</v>
       </c>
       <c r="CI9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CJ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CK9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CL9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CM9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CN9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CO9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CP9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CQ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CR9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CS9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CT9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CU9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CV9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CW9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CX9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CY9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="CZ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DA9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DB9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DC9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DD9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DE9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DF9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DG9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DH9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DI9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DJ9" s="1">
-        <v>250000</v>
+        <v>250</v>
       </c>
       <c r="DK9" s="1">
         <v>0</v>
@@ -4197,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>410.75346</v>
+        <v>683.89986</v>
       </c>
       <c r="AA10" s="1">
-        <v>407.97897</v>
+        <v>684.1203300000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>409.36621</v>
+        <v>684.01009</v>
       </c>
       <c r="AC10" s="1">
-        <v>2.7744884</v>
+        <v>-0.22046725</v>
       </c>
       <c r="AD10" s="1">
-        <v>-906.5686000000001</v>
+        <v>-901.86342</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>

--- a/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="194">
   <si>
     <t>Process</t>
   </si>
@@ -1535,16 +1535,16 @@
         <v>183</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
+        <v>0.28173173</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>184</v>
@@ -1553,13 +1553,13 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
+        <v>-15.938915</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="Z2">
         <v>683.89986</v>
@@ -1577,43 +1577,43 @@
         <v>-901.86342</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>107.37551</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>63.167494</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.0380174</v>
       </c>
       <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
+        <v>153.61172</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-2.3682986</v>
       </c>
       <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
+        <v>15.645538</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-4.206661599999999</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>-49.94327</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-4.2630615</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-49.667973</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>3.0221578</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1622,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>10.116781</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>11.9038</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>9.866286499999999</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
+        <v>45.8372</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1649,55 +1649,55 @@
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>431.12712</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>118.67734</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>431.11327</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>119.46386</v>
       </c>
       <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
+        <v>580.07748</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>-114.11161</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>-91.847297</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>-145.94106</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>-90.320491</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>-96.61098799999999</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>-89.70698</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>-75.967231</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>-89.68782899999999</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>-76.036095</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>-92.189058</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1706,22 +1706,22 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>84.074679</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>84.719674</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>83.98354500000001</v>
       </c>
       <c r="BY2">
         <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
+        <v>97.344598</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1733,55 +1733,55 @@
         <v>0</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>240.5634</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>125.91735</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>240.55824</v>
       </c>
       <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="3">
-        <v>0</v>
+        <v>126.22433</v>
+      </c>
+      <c r="CI2">
+        <v>357.93371</v>
+      </c>
+      <c r="CJ2">
+        <v>344.89922</v>
+      </c>
+      <c r="CK2">
+        <v>283.63871</v>
+      </c>
+      <c r="CL2">
+        <v>435.29883</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN2">
+        <v>279.18336</v>
+      </c>
+      <c r="CO2">
+        <v>297.18336</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ2">
+        <v>277.39179</v>
       </c>
       <c r="CR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="3">
-        <v>0</v>
+        <v>231.65451</v>
+      </c>
+      <c r="CS2">
+        <v>277.33531</v>
       </c>
       <c r="CT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="3">
-        <v>0</v>
+        <v>231.9303</v>
+      </c>
+      <c r="CU2">
+        <v>284.62557</v>
       </c>
       <c r="CV2" s="3">
         <v>0</v>
@@ -1789,23 +1789,23 @@
       <c r="CW2" s="3">
         <v>0</v>
       </c>
-      <c r="CX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ2" s="3">
-        <v>0</v>
+      <c r="CX2">
+        <v>302.88591</v>
+      </c>
+      <c r="CY2">
+        <v>304.68397</v>
+      </c>
+      <c r="CZ2">
+        <v>302.63136</v>
       </c>
       <c r="DA2" s="3">
         <v>0</v>
       </c>
-      <c r="DB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC2" s="3">
-        <v>0</v>
+      <c r="DB2">
+        <v>338.56705</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="DD2" s="3">
         <v>0</v>
@@ -1816,20 +1816,20 @@
       <c r="DF2" s="3">
         <v>0</v>
       </c>
-      <c r="DG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ2" s="3">
-        <v>0</v>
+      <c r="DG2">
+        <v>723.99062</v>
+      </c>
+      <c r="DH2">
+        <v>411.53799</v>
+      </c>
+      <c r="DI2">
+        <v>723.97676</v>
+      </c>
+      <c r="DJ2">
+        <v>412.32453</v>
       </c>
       <c r="DK2">
-        <v>0</v>
+        <v>710.57908</v>
       </c>
       <c r="DL2">
         <v>0</v>
@@ -1840,8 +1840,8 @@
       <c r="DN2">
         <v>0</v>
       </c>
-      <c r="DO2">
-        <v>0</v>
+      <c r="DO2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="DP2">
         <v>0</v>
@@ -1849,8 +1849,8 @@
       <c r="DQ2">
         <v>0</v>
       </c>
-      <c r="DR2">
-        <v>0</v>
+      <c r="DR2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="DS2">
         <v>0</v>
@@ -1888,8 +1888,8 @@
       <c r="ED2">
         <v>0</v>
       </c>
-      <c r="EE2">
-        <v>0</v>
+      <c r="EE2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="EF2">
         <v>0</v>
@@ -1913,43 +1913,43 @@
         <v>0</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>130.50159</v>
       </c>
       <c r="EN2">
-        <v>0</v>
+        <v>114.11161</v>
       </c>
       <c r="EO2">
-        <v>0</v>
+        <v>91.847297</v>
       </c>
       <c r="EP2">
-        <v>0</v>
-      </c>
-      <c r="EQ2">
-        <v>0</v>
+        <v>145.94106</v>
+      </c>
+      <c r="EQ2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="ER2">
-        <v>0</v>
+        <v>90.320491</v>
       </c>
       <c r="ES2">
-        <v>0</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
+        <v>96.61098799999999</v>
+      </c>
+      <c r="ET2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="EU2">
-        <v>0</v>
+        <v>89.70698</v>
       </c>
       <c r="EV2">
-        <v>0</v>
+        <v>75.967231</v>
       </c>
       <c r="EW2">
-        <v>0</v>
+        <v>89.68782899999999</v>
       </c>
       <c r="EX2">
-        <v>0</v>
+        <v>76.036095</v>
       </c>
       <c r="EY2">
-        <v>0</v>
+        <v>92.189058</v>
       </c>
       <c r="EZ2">
         <v>0</v>
@@ -1958,22 +1958,22 @@
         <v>0</v>
       </c>
       <c r="FB2">
-        <v>0</v>
+        <v>-84.074679</v>
       </c>
       <c r="FC2">
-        <v>0</v>
+        <v>-84.719674</v>
       </c>
       <c r="FD2">
-        <v>0</v>
+        <v>-83.98354500000001</v>
       </c>
       <c r="FE2">
         <v>0</v>
       </c>
       <c r="FF2">
-        <v>0</v>
-      </c>
-      <c r="FG2">
-        <v>0</v>
+        <v>-97.344598</v>
+      </c>
+      <c r="FG2" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="FH2">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="FK2">
-        <v>0</v>
+        <v>-240.5634</v>
       </c>
       <c r="FL2">
-        <v>0</v>
+        <v>-125.91735</v>
       </c>
       <c r="FM2">
-        <v>0</v>
+        <v>-240.55824</v>
       </c>
       <c r="FN2">
-        <v>0</v>
+        <v>-126.22433</v>
       </c>
     </row>
     <row r="3" spans="1:170" s="1" customFormat="1">
@@ -2514,16 +2514,16 @@
         <v>185</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
+        <v>0.28173173</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>184</v>
@@ -2532,13 +2532,13 @@
         <v>184</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
+        <v>-15.938915</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="Z4" s="1">
         <v>683.89986</v>
@@ -2556,43 +2556,43 @@
         <v>-901.86342</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>107.37551</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>63.167494</v>
       </c>
       <c r="AG4" s="1">
-        <v>0</v>
+        <v>2.0380174</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
+        <v>153.61172</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0</v>
+        <v>-2.3682986</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>0</v>
+        <v>15.645538</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>-4.206661599999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>-49.94327</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>-4.2630615</v>
       </c>
       <c r="AP4" s="1">
-        <v>0</v>
+        <v>-49.667973</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>3.0221578</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -2601,22 +2601,22 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>10.116781</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>11.9038</v>
       </c>
       <c r="AV4" s="1">
-        <v>0</v>
+        <v>9.866286499999999</v>
       </c>
       <c r="AW4" s="1">
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0</v>
+        <v>45.8372</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AZ4" s="1">
         <v>0</v>
@@ -2628,55 +2628,55 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>431.12712</v>
       </c>
       <c r="BD4" s="1">
-        <v>0</v>
+        <v>118.67734</v>
       </c>
       <c r="BE4" s="1">
-        <v>0</v>
+        <v>431.11327</v>
       </c>
       <c r="BF4" s="1">
-        <v>0</v>
+        <v>119.46386</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>0</v>
+        <v>580.07748</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>-114.11161</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>-91.847297</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>-145.94106</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>-90.320491</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>-96.61098799999999</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>-89.70698</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>-75.967231</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>-89.68782899999999</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>-76.036095</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>-92.189058</v>
       </c>
       <c r="BT4" s="1">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>0</v>
+        <v>84.074679</v>
       </c>
       <c r="BW4" s="1">
-        <v>0</v>
+        <v>84.719674</v>
       </c>
       <c r="BX4" s="1">
-        <v>0</v>
+        <v>83.98354500000001</v>
       </c>
       <c r="BY4" s="1">
         <v>0</v>
       </c>
       <c r="BZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="1">
-        <v>0</v>
+        <v>97.344598</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CB4" s="1">
         <v>0</v>
@@ -2712,55 +2712,55 @@
         <v>0</v>
       </c>
       <c r="CE4" s="1">
-        <v>0</v>
+        <v>240.5634</v>
       </c>
       <c r="CF4" s="1">
-        <v>0</v>
+        <v>125.91735</v>
       </c>
       <c r="CG4" s="1">
-        <v>0</v>
+        <v>240.55824</v>
       </c>
       <c r="CH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="3">
-        <v>0</v>
+        <v>126.22433</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>357.93371</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>344.89922</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>283.63871</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>435.29883</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>279.18336</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>297.18336</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>277.39179</v>
       </c>
       <c r="CR4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="3">
-        <v>0</v>
+        <v>231.65451</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>277.33531</v>
       </c>
       <c r="CT4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="3">
-        <v>0</v>
+        <v>231.9303</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>284.62557</v>
       </c>
       <c r="CV4" s="3">
         <v>0</v>
@@ -2768,23 +2768,23 @@
       <c r="CW4" s="3">
         <v>0</v>
       </c>
-      <c r="CX4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="3">
-        <v>0</v>
+      <c r="CX4" s="1">
+        <v>302.88591</v>
+      </c>
+      <c r="CY4" s="1">
+        <v>304.68397</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>302.63136</v>
       </c>
       <c r="DA4" s="3">
         <v>0</v>
       </c>
-      <c r="DB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="3">
-        <v>0</v>
+      <c r="DB4" s="1">
+        <v>338.56705</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DD4" s="3">
         <v>0</v>
@@ -2795,20 +2795,20 @@
       <c r="DF4" s="3">
         <v>0</v>
       </c>
-      <c r="DG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="3">
-        <v>0</v>
+      <c r="DG4" s="1">
+        <v>723.99062</v>
+      </c>
+      <c r="DH4" s="1">
+        <v>411.53799</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>723.97676</v>
+      </c>
+      <c r="DJ4" s="1">
+        <v>412.32453</v>
       </c>
       <c r="DK4" s="1">
-        <v>0</v>
+        <v>710.57908</v>
       </c>
       <c r="DL4" s="1">
         <v>0</v>
@@ -2819,8 +2819,8 @@
       <c r="DN4" s="1">
         <v>0</v>
       </c>
-      <c r="DO4" s="1">
-        <v>0</v>
+      <c r="DO4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DP4" s="1">
         <v>0</v>
@@ -2828,8 +2828,8 @@
       <c r="DQ4" s="1">
         <v>0</v>
       </c>
-      <c r="DR4" s="1">
-        <v>0</v>
+      <c r="DR4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DS4" s="1">
         <v>0</v>
@@ -2867,8 +2867,8 @@
       <c r="ED4" s="1">
         <v>0</v>
       </c>
-      <c r="EE4" s="1">
-        <v>0</v>
+      <c r="EE4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EF4" s="1">
         <v>0</v>
@@ -2892,43 +2892,43 @@
         <v>0</v>
       </c>
       <c r="EM4" s="1">
-        <v>0</v>
+        <v>130.50159</v>
       </c>
       <c r="EN4" s="1">
-        <v>0</v>
+        <v>114.11161</v>
       </c>
       <c r="EO4" s="1">
-        <v>0</v>
+        <v>91.847297</v>
       </c>
       <c r="EP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ4" s="1">
-        <v>0</v>
+        <v>145.94106</v>
+      </c>
+      <c r="EQ4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="ER4" s="1">
-        <v>0</v>
+        <v>90.320491</v>
       </c>
       <c r="ES4" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET4" s="1">
-        <v>0</v>
+        <v>96.61098799999999</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EU4" s="1">
-        <v>0</v>
+        <v>89.70698</v>
       </c>
       <c r="EV4" s="1">
-        <v>0</v>
+        <v>75.967231</v>
       </c>
       <c r="EW4" s="1">
-        <v>0</v>
+        <v>89.68782899999999</v>
       </c>
       <c r="EX4" s="1">
-        <v>0</v>
+        <v>76.036095</v>
       </c>
       <c r="EY4" s="1">
-        <v>0</v>
+        <v>92.189058</v>
       </c>
       <c r="EZ4" s="1">
         <v>0</v>
@@ -2937,22 +2937,22 @@
         <v>0</v>
       </c>
       <c r="FB4" s="1">
-        <v>0</v>
+        <v>-84.074679</v>
       </c>
       <c r="FC4" s="1">
-        <v>0</v>
+        <v>-84.719674</v>
       </c>
       <c r="FD4" s="1">
-        <v>0</v>
+        <v>-83.98354500000001</v>
       </c>
       <c r="FE4" s="1">
         <v>0</v>
       </c>
       <c r="FF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG4" s="1">
-        <v>0</v>
+        <v>-97.344598</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="FH4" s="1">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="FK4" s="1">
-        <v>0</v>
+        <v>-240.5634</v>
       </c>
       <c r="FL4" s="1">
-        <v>0</v>
+        <v>-125.91735</v>
       </c>
       <c r="FM4" s="1">
-        <v>0</v>
+        <v>-240.55824</v>
       </c>
       <c r="FN4" s="1">
-        <v>0</v>
+        <v>-126.22433</v>
       </c>
     </row>
     <row r="5" spans="1:170" s="1" customFormat="1">
@@ -2981,16 +2981,16 @@
         <v>186</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
+        <v>0.28173173</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>184</v>
@@ -2999,13 +2999,13 @@
         <v>184</v>
       </c>
       <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
+        <v>-15.938915</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="Z5" s="1">
         <v>683.89986</v>
@@ -3023,43 +3023,43 @@
         <v>-901.86342</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>107.37551</v>
       </c>
       <c r="AF5" s="1">
-        <v>0</v>
+        <v>63.167494</v>
       </c>
       <c r="AG5" s="1">
-        <v>0</v>
+        <v>2.0380174</v>
       </c>
       <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
+        <v>153.61172</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0</v>
+        <v>-2.3682986</v>
       </c>
       <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
+        <v>15.645538</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>-4.206661599999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0</v>
+        <v>-49.94327</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
+        <v>-4.2630615</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>-49.667973</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>3.0221578</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -3068,22 +3068,22 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>0</v>
+        <v>10.116781</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>11.9038</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>9.866286499999999</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>0</v>
+        <v>45.8372</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -3095,55 +3095,55 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>431.12712</v>
       </c>
       <c r="BD5" s="1">
-        <v>0</v>
+        <v>118.67734</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>431.11327</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
+        <v>119.46386</v>
       </c>
       <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>0</v>
+        <v>580.07748</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>-114.11161</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>-91.847297</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>-145.94106</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>-90.320491</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>-96.61098799999999</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>-89.70698</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>-75.967231</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>-89.68782899999999</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>-76.036095</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>-92.189058</v>
       </c>
       <c r="BT5" s="1">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>0</v>
+        <v>84.074679</v>
       </c>
       <c r="BW5" s="1">
-        <v>0</v>
+        <v>84.719674</v>
       </c>
       <c r="BX5" s="1">
-        <v>0</v>
+        <v>83.98354500000001</v>
       </c>
       <c r="BY5" s="1">
         <v>0</v>
       </c>
       <c r="BZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>0</v>
+        <v>97.344598</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CB5" s="1">
         <v>0</v>
@@ -3179,55 +3179,55 @@
         <v>0</v>
       </c>
       <c r="CE5" s="1">
-        <v>0</v>
+        <v>240.5634</v>
       </c>
       <c r="CF5" s="1">
-        <v>0</v>
+        <v>125.91735</v>
       </c>
       <c r="CG5" s="1">
-        <v>0</v>
+        <v>240.55824</v>
       </c>
       <c r="CH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="3">
-        <v>0</v>
+        <v>126.22433</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>357.93371</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>344.89922</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>283.63871</v>
+      </c>
+      <c r="CL5" s="1">
+        <v>435.29883</v>
+      </c>
+      <c r="CM5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>279.18336</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>297.18336</v>
+      </c>
+      <c r="CP5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>277.39179</v>
       </c>
       <c r="CR5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="3">
-        <v>0</v>
+        <v>231.65451</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>277.33531</v>
       </c>
       <c r="CT5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="3">
-        <v>0</v>
+        <v>231.9303</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>284.62557</v>
       </c>
       <c r="CV5" s="3">
         <v>0</v>
@@ -3235,23 +3235,23 @@
       <c r="CW5" s="3">
         <v>0</v>
       </c>
-      <c r="CX5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="3">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="3">
-        <v>0</v>
+      <c r="CX5" s="1">
+        <v>302.88591</v>
+      </c>
+      <c r="CY5" s="1">
+        <v>304.68397</v>
+      </c>
+      <c r="CZ5" s="1">
+        <v>302.63136</v>
       </c>
       <c r="DA5" s="3">
         <v>0</v>
       </c>
-      <c r="DB5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="3">
-        <v>0</v>
+      <c r="DB5" s="1">
+        <v>338.56705</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DD5" s="3">
         <v>0</v>
@@ -3262,20 +3262,20 @@
       <c r="DF5" s="3">
         <v>0</v>
       </c>
-      <c r="DG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="3">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="3">
-        <v>0</v>
+      <c r="DG5" s="1">
+        <v>723.99062</v>
+      </c>
+      <c r="DH5" s="1">
+        <v>411.53799</v>
+      </c>
+      <c r="DI5" s="1">
+        <v>723.97676</v>
+      </c>
+      <c r="DJ5" s="1">
+        <v>412.32453</v>
       </c>
       <c r="DK5" s="1">
-        <v>0</v>
+        <v>710.57908</v>
       </c>
       <c r="DL5" s="1">
         <v>0</v>
@@ -3286,8 +3286,8 @@
       <c r="DN5" s="1">
         <v>0</v>
       </c>
-      <c r="DO5" s="1">
-        <v>0</v>
+      <c r="DO5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DP5" s="1">
         <v>0</v>
@@ -3295,8 +3295,8 @@
       <c r="DQ5" s="1">
         <v>0</v>
       </c>
-      <c r="DR5" s="1">
-        <v>0</v>
+      <c r="DR5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DS5" s="1">
         <v>0</v>
@@ -3334,8 +3334,8 @@
       <c r="ED5" s="1">
         <v>0</v>
       </c>
-      <c r="EE5" s="1">
-        <v>0</v>
+      <c r="EE5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EF5" s="1">
         <v>0</v>
@@ -3359,43 +3359,43 @@
         <v>0</v>
       </c>
       <c r="EM5" s="1">
-        <v>0</v>
+        <v>130.50159</v>
       </c>
       <c r="EN5" s="1">
-        <v>0</v>
+        <v>114.11161</v>
       </c>
       <c r="EO5" s="1">
-        <v>0</v>
+        <v>91.847297</v>
       </c>
       <c r="EP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="1">
-        <v>0</v>
+        <v>145.94106</v>
+      </c>
+      <c r="EQ5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="ER5" s="1">
-        <v>0</v>
+        <v>90.320491</v>
       </c>
       <c r="ES5" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET5" s="1">
-        <v>0</v>
+        <v>96.61098799999999</v>
+      </c>
+      <c r="ET5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EU5" s="1">
-        <v>0</v>
+        <v>89.70698</v>
       </c>
       <c r="EV5" s="1">
-        <v>0</v>
+        <v>75.967231</v>
       </c>
       <c r="EW5" s="1">
-        <v>0</v>
+        <v>89.68782899999999</v>
       </c>
       <c r="EX5" s="1">
-        <v>0</v>
+        <v>76.036095</v>
       </c>
       <c r="EY5" s="1">
-        <v>0</v>
+        <v>92.189058</v>
       </c>
       <c r="EZ5" s="1">
         <v>0</v>
@@ -3404,22 +3404,22 @@
         <v>0</v>
       </c>
       <c r="FB5" s="1">
-        <v>0</v>
+        <v>-84.074679</v>
       </c>
       <c r="FC5" s="1">
-        <v>0</v>
+        <v>-84.719674</v>
       </c>
       <c r="FD5" s="1">
-        <v>0</v>
+        <v>-83.98354500000001</v>
       </c>
       <c r="FE5" s="1">
         <v>0</v>
       </c>
       <c r="FF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG5" s="1">
-        <v>0</v>
+        <v>-97.344598</v>
+      </c>
+      <c r="FG5" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="FH5" s="1">
         <v>0</v>
@@ -3431,16 +3431,16 @@
         <v>0</v>
       </c>
       <c r="FK5" s="1">
-        <v>0</v>
+        <v>-240.5634</v>
       </c>
       <c r="FL5" s="1">
-        <v>0</v>
+        <v>-125.91735</v>
       </c>
       <c r="FM5" s="1">
-        <v>0</v>
+        <v>-240.55824</v>
       </c>
       <c r="FN5" s="1">
-        <v>0</v>
+        <v>-126.22433</v>
       </c>
     </row>
     <row r="6" spans="1:170" s="1" customFormat="1">
@@ -4170,16 +4170,16 @@
         <v>191</v>
       </c>
       <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
+        <v>0.28173173</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>184</v>
@@ -4188,13 +4188,13 @@
         <v>184</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
+        <v>-15.938915</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="Z10" s="1">
         <v>683.89986</v>
@@ -4212,43 +4212,43 @@
         <v>-901.86342</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>107.37551</v>
       </c>
       <c r="AF10" s="1">
-        <v>0</v>
+        <v>63.167494</v>
       </c>
       <c r="AG10" s="1">
-        <v>0</v>
+        <v>2.0380174</v>
       </c>
       <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
+        <v>153.61172</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>-2.3682986</v>
       </c>
       <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
+        <v>15.645538</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>-4.206661599999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0</v>
+        <v>-49.94327</v>
       </c>
       <c r="AO10" s="1">
-        <v>0</v>
+        <v>-4.2630615</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>-49.667973</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>3.0221578</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -4257,22 +4257,22 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>0</v>
+        <v>10.116781</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>11.9038</v>
       </c>
       <c r="AV10" s="1">
-        <v>0</v>
+        <v>9.866286499999999</v>
       </c>
       <c r="AW10" s="1">
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>0</v>
+        <v>45.8372</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AZ10" s="1">
         <v>0</v>
@@ -4284,55 +4284,55 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>431.12712</v>
       </c>
       <c r="BD10" s="1">
-        <v>0</v>
+        <v>118.67734</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>431.11327</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
+        <v>119.46386</v>
       </c>
       <c r="BG10" s="1">
-        <v>0</v>
+        <v>580.07748</v>
       </c>
       <c r="BH10" s="1">
-        <v>0</v>
+        <v>-114.11161</v>
       </c>
       <c r="BI10" s="1">
-        <v>0</v>
+        <v>-91.847297</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="1">
-        <v>0</v>
+        <v>-145.94106</v>
+      </c>
+      <c r="BK10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="BL10" s="1">
-        <v>0</v>
+        <v>-90.320491</v>
       </c>
       <c r="BM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="1">
-        <v>0</v>
+        <v>-96.61098799999999</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="BO10" s="1">
-        <v>0</v>
+        <v>-89.70698</v>
       </c>
       <c r="BP10" s="1">
-        <v>0</v>
+        <v>-75.967231</v>
       </c>
       <c r="BQ10" s="1">
-        <v>0</v>
+        <v>-89.68782899999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>-76.036095</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>-92.189058</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
@@ -4341,22 +4341,22 @@
         <v>0</v>
       </c>
       <c r="BV10" s="1">
-        <v>0</v>
+        <v>84.074679</v>
       </c>
       <c r="BW10" s="1">
-        <v>0</v>
+        <v>84.719674</v>
       </c>
       <c r="BX10" s="1">
-        <v>0</v>
+        <v>83.98354500000001</v>
       </c>
       <c r="BY10" s="1">
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="1">
-        <v>0</v>
+        <v>97.344598</v>
+      </c>
+      <c r="CA10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CB10" s="1">
         <v>0</v>
@@ -4368,55 +4368,55 @@
         <v>0</v>
       </c>
       <c r="CE10" s="1">
-        <v>0</v>
+        <v>240.5634</v>
       </c>
       <c r="CF10" s="1">
-        <v>0</v>
+        <v>125.91735</v>
       </c>
       <c r="CG10" s="1">
-        <v>0</v>
+        <v>240.55824</v>
       </c>
       <c r="CH10" s="1">
-        <v>0</v>
+        <v>126.22433</v>
       </c>
       <c r="CI10" s="1">
-        <v>0</v>
+        <v>357.93371</v>
       </c>
       <c r="CJ10" s="1">
-        <v>0</v>
+        <v>344.89922</v>
       </c>
       <c r="CK10" s="1">
-        <v>0</v>
+        <v>283.63871</v>
       </c>
       <c r="CL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="1">
-        <v>0</v>
+        <v>435.29883</v>
+      </c>
+      <c r="CM10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CN10" s="1">
-        <v>0</v>
+        <v>279.18336</v>
       </c>
       <c r="CO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP10" s="1">
-        <v>0</v>
+        <v>297.18336</v>
+      </c>
+      <c r="CP10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CQ10" s="1">
-        <v>0</v>
+        <v>277.39179</v>
       </c>
       <c r="CR10" s="1">
-        <v>0</v>
+        <v>231.65451</v>
       </c>
       <c r="CS10" s="1">
-        <v>0</v>
+        <v>277.33531</v>
       </c>
       <c r="CT10" s="1">
-        <v>0</v>
+        <v>231.9303</v>
       </c>
       <c r="CU10" s="1">
-        <v>0</v>
+        <v>284.62557</v>
       </c>
       <c r="CV10" s="1">
         <v>0</v>
@@ -4425,22 +4425,22 @@
         <v>0</v>
       </c>
       <c r="CX10" s="1">
-        <v>0</v>
+        <v>302.88591</v>
       </c>
       <c r="CY10" s="1">
-        <v>0</v>
+        <v>304.68397</v>
       </c>
       <c r="CZ10" s="1">
-        <v>0</v>
+        <v>302.63136</v>
       </c>
       <c r="DA10" s="1">
         <v>0</v>
       </c>
       <c r="DB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC10" s="1">
-        <v>0</v>
+        <v>338.56705</v>
+      </c>
+      <c r="DC10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DD10" s="1">
         <v>0</v>
@@ -4452,19 +4452,19 @@
         <v>0</v>
       </c>
       <c r="DG10" s="1">
-        <v>0</v>
+        <v>723.99062</v>
       </c>
       <c r="DH10" s="1">
-        <v>0</v>
+        <v>411.53799</v>
       </c>
       <c r="DI10" s="1">
-        <v>0</v>
+        <v>723.97676</v>
       </c>
       <c r="DJ10" s="1">
-        <v>0</v>
+        <v>412.32453</v>
       </c>
       <c r="DK10" s="1">
-        <v>0</v>
+        <v>710.57908</v>
       </c>
       <c r="DL10" s="1">
         <v>0</v>
@@ -4475,8 +4475,8 @@
       <c r="DN10" s="1">
         <v>0</v>
       </c>
-      <c r="DO10" s="1">
-        <v>0</v>
+      <c r="DO10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DP10" s="1">
         <v>0</v>
@@ -4484,8 +4484,8 @@
       <c r="DQ10" s="1">
         <v>0</v>
       </c>
-      <c r="DR10" s="1">
-        <v>0</v>
+      <c r="DR10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DS10" s="1">
         <v>0</v>
@@ -4523,8 +4523,8 @@
       <c r="ED10" s="1">
         <v>0</v>
       </c>
-      <c r="EE10" s="1">
-        <v>0</v>
+      <c r="EE10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EF10" s="1">
         <v>0</v>
@@ -4548,43 +4548,43 @@
         <v>0</v>
       </c>
       <c r="EM10" s="1">
-        <v>0</v>
+        <v>130.50159</v>
       </c>
       <c r="EN10" s="1">
-        <v>0</v>
+        <v>114.11161</v>
       </c>
       <c r="EO10" s="1">
-        <v>0</v>
+        <v>91.847297</v>
       </c>
       <c r="EP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="1">
-        <v>0</v>
+        <v>145.94106</v>
+      </c>
+      <c r="EQ10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="ER10" s="1">
-        <v>0</v>
+        <v>90.320491</v>
       </c>
       <c r="ES10" s="1">
-        <v>0</v>
-      </c>
-      <c r="ET10" s="1">
-        <v>0</v>
+        <v>96.61098799999999</v>
+      </c>
+      <c r="ET10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EU10" s="1">
-        <v>0</v>
+        <v>89.70698</v>
       </c>
       <c r="EV10" s="1">
-        <v>0</v>
+        <v>75.967231</v>
       </c>
       <c r="EW10" s="1">
-        <v>0</v>
+        <v>89.68782899999999</v>
       </c>
       <c r="EX10" s="1">
-        <v>0</v>
+        <v>76.036095</v>
       </c>
       <c r="EY10" s="1">
-        <v>0</v>
+        <v>92.189058</v>
       </c>
       <c r="EZ10" s="1">
         <v>0</v>
@@ -4593,22 +4593,22 @@
         <v>0</v>
       </c>
       <c r="FB10" s="1">
-        <v>0</v>
+        <v>-84.074679</v>
       </c>
       <c r="FC10" s="1">
-        <v>0</v>
+        <v>-84.719674</v>
       </c>
       <c r="FD10" s="1">
-        <v>0</v>
+        <v>-83.98354500000001</v>
       </c>
       <c r="FE10" s="1">
         <v>0</v>
       </c>
       <c r="FF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="FG10" s="1">
-        <v>0</v>
+        <v>-97.344598</v>
+      </c>
+      <c r="FG10" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="FH10" s="1">
         <v>0</v>
@@ -4620,16 +4620,16 @@
         <v>0</v>
       </c>
       <c r="FK10" s="1">
-        <v>0</v>
+        <v>-240.5634</v>
       </c>
       <c r="FL10" s="1">
-        <v>0</v>
+        <v>-125.91735</v>
       </c>
       <c r="FM10" s="1">
-        <v>0</v>
+        <v>-240.55824</v>
       </c>
       <c r="FN10" s="1">
-        <v>0</v>
+        <v>-126.22433</v>
       </c>
     </row>
     <row r="11" spans="1:170" s="1" customFormat="1">
@@ -4639,14 +4639,14 @@
       <c r="Q11" s="1">
         <v>0</v>
       </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
+      <c r="R11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>184</v>
@@ -4657,11 +4657,11 @@
       <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
+      <c r="X11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -4690,8 +4690,8 @@
       <c r="AH11" s="1">
         <v>0</v>
       </c>
-      <c r="AI11" s="1">
-        <v>0</v>
+      <c r="AI11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AJ11" s="1">
         <v>0</v>
@@ -4699,8 +4699,8 @@
       <c r="AK11" s="1">
         <v>0</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
+      <c r="AL11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AM11" s="1">
         <v>0</v>
@@ -4738,8 +4738,8 @@
       <c r="AX11" s="1">
         <v>0</v>
       </c>
-      <c r="AY11" s="1">
-        <v>0</v>
+      <c r="AY11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="AZ11" s="1">
         <v>0</v>
@@ -4774,8 +4774,8 @@
       <c r="BJ11" s="1">
         <v>0</v>
       </c>
-      <c r="BK11" s="1">
-        <v>0</v>
+      <c r="BK11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="BL11" s="1">
         <v>0</v>
@@ -4783,8 +4783,8 @@
       <c r="BM11" s="1">
         <v>0</v>
       </c>
-      <c r="BN11" s="1">
-        <v>0</v>
+      <c r="BN11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="BO11" s="1">
         <v>0</v>
@@ -4822,8 +4822,8 @@
       <c r="BZ11" s="1">
         <v>0</v>
       </c>
-      <c r="CA11" s="1">
-        <v>0</v>
+      <c r="CA11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CB11" s="1">
         <v>0</v>
@@ -4858,8 +4858,8 @@
       <c r="CL11" s="1">
         <v>0</v>
       </c>
-      <c r="CM11" s="1">
-        <v>0</v>
+      <c r="CM11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CN11" s="1">
         <v>0</v>
@@ -4867,8 +4867,8 @@
       <c r="CO11" s="1">
         <v>0</v>
       </c>
-      <c r="CP11" s="1">
-        <v>0</v>
+      <c r="CP11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="CQ11" s="1">
         <v>0</v>
@@ -4906,8 +4906,8 @@
       <c r="DB11" s="1">
         <v>0</v>
       </c>
-      <c r="DC11" s="1">
-        <v>0</v>
+      <c r="DC11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DD11" s="1">
         <v>0</v>
@@ -4942,8 +4942,8 @@
       <c r="DN11" s="1">
         <v>0</v>
       </c>
-      <c r="DO11" s="1">
-        <v>0</v>
+      <c r="DO11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DP11" s="1">
         <v>0</v>
@@ -4951,8 +4951,8 @@
       <c r="DQ11" s="1">
         <v>0</v>
       </c>
-      <c r="DR11" s="1">
-        <v>0</v>
+      <c r="DR11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="DS11" s="1">
         <v>0</v>
@@ -4990,8 +4990,8 @@
       <c r="ED11" s="1">
         <v>0</v>
       </c>
-      <c r="EE11" s="1">
-        <v>0</v>
+      <c r="EE11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EF11" s="1">
         <v>0</v>
@@ -5026,8 +5026,8 @@
       <c r="EP11" s="1">
         <v>0</v>
       </c>
-      <c r="EQ11" s="1">
-        <v>0</v>
+      <c r="EQ11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="ER11" s="1">
         <v>0</v>
@@ -5035,8 +5035,8 @@
       <c r="ES11" s="1">
         <v>0</v>
       </c>
-      <c r="ET11" s="1">
-        <v>0</v>
+      <c r="ET11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="EU11" s="1">
         <v>0</v>
@@ -5074,8 +5074,8 @@
       <c r="FF11" s="1">
         <v>0</v>
       </c>
-      <c r="FG11" s="1">
-        <v>0</v>
+      <c r="FG11" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="FH11" s="1">
         <v>0</v>
@@ -5103,8 +5103,8 @@
       <c r="P12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>184</v>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>184</v>
@@ -5121,8 +5121,8 @@
       <c r="V12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>184</v>
+      <c r="W12" s="1">
+        <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>184</v>
@@ -5145,44 +5145,44 @@
       <c r="AD12" s="1">
         <v>0</v>
       </c>
-      <c r="AE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>184</v>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK12" s="1" t="s">
-        <v>184</v>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
       </c>
       <c r="AL12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>184</v>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>184</v>
@@ -5190,20 +5190,20 @@
       <c r="AS12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>184</v>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
       </c>
       <c r="AW12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AX12" s="1" t="s">
-        <v>184</v>
+      <c r="AX12" s="1">
+        <v>0</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>184</v>
@@ -5217,56 +5217,56 @@
       <c r="BB12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ12" s="1" t="s">
-        <v>184</v>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM12" s="1" t="s">
-        <v>184</v>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>0</v>
       </c>
       <c r="BN12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BS12" s="1" t="s">
-        <v>184</v>
+      <c r="BO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>0</v>
       </c>
       <c r="BT12" s="1" t="s">
         <v>184</v>
@@ -5274,20 +5274,20 @@
       <c r="BU12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BW12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BX12" s="1" t="s">
-        <v>184</v>
+      <c r="BV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>0</v>
       </c>
       <c r="BY12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BZ12" s="1" t="s">
-        <v>184</v>
+      <c r="BZ12" s="1">
+        <v>0</v>
       </c>
       <c r="CA12" s="1" t="s">
         <v>184</v>
@@ -5301,56 +5301,56 @@
       <c r="CD12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CE12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CF12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CL12" s="1" t="s">
-        <v>184</v>
+      <c r="CE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>0</v>
       </c>
       <c r="CM12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CO12" s="1" t="s">
-        <v>184</v>
+      <c r="CN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>0</v>
       </c>
       <c r="CP12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CR12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CS12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CT12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CU12" s="1" t="s">
-        <v>184</v>
+      <c r="CQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>0</v>
       </c>
       <c r="CV12" s="1" t="s">
         <v>184</v>
@@ -5358,20 +5358,20 @@
       <c r="CW12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CY12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CZ12" s="1" t="s">
-        <v>184</v>
+      <c r="CX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="1">
+        <v>0</v>
       </c>
       <c r="DA12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DB12" s="1" t="s">
-        <v>184</v>
+      <c r="DB12" s="1">
+        <v>0</v>
       </c>
       <c r="DC12" s="1" t="s">
         <v>184</v>
@@ -5385,20 +5385,20 @@
       <c r="DF12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="DG12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DI12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK12" s="1" t="s">
-        <v>184</v>
+      <c r="DG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK12" s="1">
+        <v>0</v>
       </c>
       <c r="DL12" s="1" t="s">
         <v>184</v>
@@ -5481,44 +5481,44 @@
       <c r="EL12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EN12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EO12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EP12" s="1" t="s">
-        <v>184</v>
+      <c r="EM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP12" s="1">
+        <v>0</v>
       </c>
       <c r="EQ12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="ER12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="ES12" s="1" t="s">
-        <v>184</v>
+      <c r="ER12" s="1">
+        <v>0</v>
+      </c>
+      <c r="ES12" s="1">
+        <v>0</v>
       </c>
       <c r="ET12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="EU12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EV12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EW12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EX12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="EY12" s="1" t="s">
-        <v>184</v>
+      <c r="EU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="EY12" s="1">
+        <v>0</v>
       </c>
       <c r="EZ12" s="1" t="s">
         <v>184</v>
@@ -5526,20 +5526,20 @@
       <c r="FA12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FB12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FC12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FD12" s="1" t="s">
-        <v>184</v>
+      <c r="FB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FD12" s="1">
+        <v>0</v>
       </c>
       <c r="FE12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FF12" s="1" t="s">
-        <v>184</v>
+      <c r="FF12" s="1">
+        <v>0</v>
       </c>
       <c r="FG12" s="1" t="s">
         <v>184</v>
@@ -5553,17 +5553,17 @@
       <c r="FJ12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="FK12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FL12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FM12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="FN12" s="1" t="s">
-        <v>184</v>
+      <c r="FK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="FN12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:170" s="1" customFormat="1"/>

--- a/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
+++ b/dcd_opamp_dcop_post_code-0_tsmc2p_meas.xlsx
@@ -550,7 +550,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>0.420</t>
+    <t>0.650</t>
   </si>
   <si>
     <t>0.75</t>
@@ -598,7 +598,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>0.441</t>
+    <t>0.702</t>
   </si>
   <si>
     <t>0.825</t>
@@ -631,7 +631,7 @@
     <t>dio_s</t>
   </si>
   <si>
-    <t>0.386</t>
+    <t>0.585</t>
   </si>
   <si>
     <t>0.675</t>
@@ -1787,13 +1787,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="S2">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="T2">
-        <v>5.0770992E-05</v>
+        <v>7.8995278E-05</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>184</v>
@@ -1802,448 +1802,448 @@
         <v>184</v>
       </c>
       <c r="W2" s="3">
-        <v>-15.778259</v>
+        <v>-15.768454</v>
       </c>
       <c r="X2">
-        <v>-162.01997</v>
+        <v>-150.48434</v>
       </c>
       <c r="Y2">
-        <v>51.664862</v>
+        <v>87.127285</v>
       </c>
       <c r="Z2">
-        <v>709.51431</v>
+        <v>690.95787</v>
       </c>
       <c r="AA2">
-        <v>709.61414</v>
+        <v>691.1469</v>
       </c>
       <c r="AB2">
-        <v>709.56422</v>
+        <v>691.05238</v>
       </c>
       <c r="AC2" s="3">
-        <v>-0.099829376</v>
+        <v>-0.18903107</v>
       </c>
       <c r="AD2">
-        <v>-812.38452</v>
+        <v>-893.06305</v>
       </c>
       <c r="AE2">
-        <v>107.64601</v>
+        <v>107.4069</v>
       </c>
       <c r="AF2">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="AG2">
-        <v>46.159713</v>
+        <v>46.085563</v>
       </c>
       <c r="AH2">
-        <v>191.42073</v>
+        <v>191.31945</v>
       </c>
       <c r="AI2">
-        <v>46.16328799999999</v>
+        <v>46.088998</v>
       </c>
       <c r="AJ2">
-        <v>46.496206</v>
+        <v>46.10558</v>
       </c>
       <c r="AK2">
-        <v>68.464224</v>
+        <v>68.343332</v>
       </c>
       <c r="AL2" s="3">
-        <v>-281.6917</v>
+        <v>-281.69174</v>
       </c>
       <c r="AM2">
-        <v>39.25498999999999</v>
+        <v>39.196949</v>
       </c>
       <c r="AN2">
-        <v>-40.500361</v>
+        <v>-23.081309</v>
       </c>
       <c r="AO2">
-        <v>39.201059</v>
+        <v>39.143077</v>
       </c>
       <c r="AP2">
-        <v>-39.815965</v>
+        <v>-22.522335</v>
       </c>
       <c r="AQ2">
-        <v>47.288157</v>
+        <v>46.918856</v>
       </c>
       <c r="AR2">
-        <v>-84.724216</v>
+        <v>-62.087073</v>
       </c>
       <c r="AS2">
-        <v>-88.235649</v>
+        <v>-65.60646100000001</v>
       </c>
       <c r="AT2">
-        <v>29.970901</v>
+        <v>29.920091</v>
       </c>
       <c r="AU2">
-        <v>31.018983</v>
+        <v>30.976247</v>
       </c>
       <c r="AV2">
-        <v>30.016954</v>
+        <v>29.94098</v>
       </c>
       <c r="AW2">
-        <v>16.13617</v>
+        <v>15.119463</v>
       </c>
       <c r="AX2">
-        <v>142.33925</v>
+        <v>142.07134</v>
       </c>
       <c r="AY2" s="3">
-        <v>-292.8575</v>
+        <v>-292.8675</v>
       </c>
       <c r="AZ2">
-        <v>14.555734</v>
+        <v>13.685201</v>
       </c>
       <c r="BA2">
-        <v>-33.638379</v>
+        <v>-40.946003</v>
       </c>
       <c r="BB2">
-        <v>-33.654765</v>
+        <v>-40.95957</v>
       </c>
       <c r="BC2">
-        <v>444.09394</v>
+        <v>430.51475</v>
       </c>
       <c r="BD2">
-        <v>133.7476</v>
+        <v>126.06136</v>
       </c>
       <c r="BE2">
-        <v>444.09398</v>
+        <v>430.51478</v>
       </c>
       <c r="BF2">
-        <v>134.53186</v>
+        <v>126.8634</v>
       </c>
       <c r="BG2">
-        <v>580.22884</v>
+        <v>580.0849999999999</v>
       </c>
       <c r="BH2" s="3">
-        <v>-89.25073599999999</v>
+        <v>-89.27562999999999</v>
       </c>
       <c r="BI2">
-        <v>78.292528</v>
+        <v>78.30401500000001</v>
       </c>
       <c r="BJ2">
-        <v>311.51938</v>
+        <v>311.45285</v>
       </c>
       <c r="BK2">
-        <v>162.36915</v>
+        <v>158.69032</v>
       </c>
       <c r="BL2">
-        <v>315.4576499999999</v>
+        <v>315.25077</v>
       </c>
       <c r="BM2">
-        <v>232.57698</v>
+        <v>232.50244</v>
       </c>
       <c r="BN2">
-        <v>670.91628</v>
+        <v>666.8632699999999</v>
       </c>
       <c r="BO2">
-        <v>127.63134</v>
+        <v>110.0516</v>
       </c>
       <c r="BP2">
-        <v>392.77724</v>
+        <v>386.17093</v>
       </c>
       <c r="BQ2">
-        <v>128.14648</v>
+        <v>110.55275</v>
       </c>
       <c r="BR2">
-        <v>391.90574</v>
+        <v>385.36014</v>
       </c>
       <c r="BS2" s="3">
-        <v>-86.077516</v>
+        <v>-67.13221</v>
       </c>
       <c r="BT2">
-        <v>588.31655</v>
+        <v>478.80101</v>
       </c>
       <c r="BU2">
-        <v>588.32516</v>
+        <v>478.68233</v>
       </c>
       <c r="BV2">
-        <v>262.82477</v>
+        <v>262.7745</v>
       </c>
       <c r="BW2">
-        <v>144.85895</v>
+        <v>144.67084</v>
       </c>
       <c r="BX2">
-        <v>282.16986</v>
+        <v>281.94418</v>
       </c>
       <c r="BY2">
-        <v>22.024103</v>
+        <v>25.391477</v>
       </c>
       <c r="BZ2">
-        <v>288.14205</v>
+        <v>287.98946</v>
       </c>
       <c r="CA2" s="3">
-        <v>-53.514763</v>
+        <v>-53.524761</v>
       </c>
       <c r="CB2">
-        <v>195.94405</v>
+        <v>93.428065</v>
       </c>
       <c r="CC2">
-        <v>102.57535</v>
+        <v>227.47829</v>
       </c>
       <c r="CD2">
-        <v>101.97727</v>
+        <v>227.02705</v>
       </c>
       <c r="CE2" s="3">
-        <v>-236.21964</v>
+        <v>-225.21061</v>
       </c>
       <c r="CF2" s="3">
-        <v>-118.91468</v>
+        <v>-109.25176</v>
       </c>
       <c r="CG2" s="3">
-        <v>-236.18762</v>
+        <v>-225.15797</v>
       </c>
       <c r="CH2" s="3">
-        <v>-119.22126</v>
+        <v>-109.59966</v>
       </c>
       <c r="CI2">
-        <v>358.20412</v>
+        <v>357.96507</v>
       </c>
       <c r="CJ2">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="CK2">
-        <v>327.8515</v>
+        <v>327.77739</v>
       </c>
       <c r="CL2">
-        <v>473.12149</v>
+        <v>473.02023</v>
       </c>
       <c r="CM2">
-        <v>327.85176</v>
+        <v>327.77764</v>
       </c>
       <c r="CN2">
-        <v>328.1808</v>
+        <v>327.79034</v>
       </c>
       <c r="CO2">
-        <v>350.13937</v>
+        <v>350.01855</v>
       </c>
       <c r="CP2" s="3">
-        <v>0.02739104</v>
+        <v>0.027386477</v>
       </c>
       <c r="CQ2">
-        <v>320.947</v>
-      </c>
-      <c r="CR2" s="3">
-        <v>241.21129</v>
+        <v>320.88977</v>
+      </c>
+      <c r="CR2">
+        <v>258.62631</v>
       </c>
       <c r="CS2">
-        <v>320.89302</v>
-      </c>
-      <c r="CT2" s="3">
-        <v>241.89572</v>
+        <v>320.83591</v>
+      </c>
+      <c r="CT2">
+        <v>259.18538</v>
       </c>
       <c r="CU2">
-        <v>329.00993</v>
+        <v>328.6153</v>
       </c>
       <c r="CV2" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CW2" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CX2">
-        <v>322.77759</v>
+        <v>322.7268</v>
       </c>
       <c r="CY2">
-        <v>323.82995</v>
+        <v>323.78723</v>
       </c>
       <c r="CZ2">
-        <v>322.82206</v>
+        <v>322.74612</v>
       </c>
       <c r="DA2">
-        <v>308.82383</v>
+        <v>307.80488</v>
       </c>
       <c r="DB2">
-        <v>435.16997</v>
+        <v>434.90213</v>
       </c>
       <c r="DC2" s="3">
-        <v>0.0080709205</v>
+        <v>-0.0019261682</v>
       </c>
       <c r="DD2">
-        <v>307.14857</v>
+        <v>306.32375</v>
       </c>
       <c r="DE2" s="3">
-        <v>214.9356</v>
+        <v>204.07356</v>
       </c>
       <c r="DF2" s="3">
-        <v>214.93563</v>
+        <v>204.07359</v>
       </c>
       <c r="DG2">
-        <v>736.9589100000001</v>
+        <v>723.3785799999999</v>
       </c>
       <c r="DH2">
-        <v>426.61177</v>
+        <v>418.92378</v>
       </c>
       <c r="DI2">
-        <v>736.95894</v>
+        <v>723.3786</v>
       </c>
       <c r="DJ2">
-        <v>427.39603</v>
+        <v>419.72583</v>
       </c>
       <c r="DK2">
-        <v>710.82677</v>
+        <v>710.59775</v>
       </c>
       <c r="DL2">
-        <v>28.03748</v>
+        <v>28.014969</v>
       </c>
       <c r="DM2">
-        <v>186.06749</v>
+        <v>186.05183</v>
       </c>
       <c r="DN2">
-        <v>470.02712</v>
+        <v>469.92767</v>
       </c>
       <c r="DO2">
-        <v>270.14125</v>
+        <v>266.43541</v>
       </c>
       <c r="DP2">
-        <v>423.34714</v>
+        <v>422.99728</v>
       </c>
       <c r="DQ2">
-        <v>348.49669</v>
+        <v>348.37814</v>
       </c>
       <c r="DR2">
-        <v>734.21669</v>
+        <v>730.16368</v>
       </c>
       <c r="DS2">
-        <v>232.87714</v>
+        <v>215.27714</v>
       </c>
       <c r="DT2">
-        <v>471.24162</v>
+        <v>469.75717</v>
       </c>
       <c r="DU2">
-        <v>233.37249</v>
+        <v>215.75859</v>
       </c>
       <c r="DV2">
-        <v>470.55866</v>
+        <v>469.12107</v>
       </c>
       <c r="DW2">
-        <v>22.164174</v>
+        <v>40.927302</v>
       </c>
       <c r="DX2">
-        <v>657.49888</v>
+        <v>552.09226</v>
       </c>
       <c r="DY2">
-        <v>657.01816</v>
+        <v>551.24878</v>
       </c>
       <c r="DZ2">
-        <v>354.20151</v>
+        <v>354.13221</v>
       </c>
       <c r="EA2">
-        <v>236.6324</v>
+        <v>236.42826</v>
       </c>
       <c r="EB2">
-        <v>373.56264</v>
+        <v>373.30851</v>
       </c>
       <c r="EC2">
-        <v>108.23674</v>
+        <v>111.23504</v>
       </c>
       <c r="ED2">
-        <v>423.14572</v>
-      </c>
-      <c r="EE2">
-        <v>0.0080543391</v>
+        <v>422.88982</v>
+      </c>
+      <c r="EE2" s="3">
+        <v>-0.0019457277</v>
       </c>
       <c r="EF2">
-        <v>281.56119</v>
+        <v>178.74144</v>
       </c>
       <c r="EG2">
-        <v>171.65552</v>
+        <v>294.60507</v>
       </c>
       <c r="EH2">
-        <v>171.05299</v>
+        <v>294.15034</v>
       </c>
       <c r="EI2">
-        <v>8.933324899999999</v>
+        <v>15.145152</v>
       </c>
       <c r="EJ2">
-        <v>12.89794</v>
+        <v>19.555665</v>
       </c>
       <c r="EK2">
-        <v>8.965188400000001</v>
+        <v>15.197524</v>
       </c>
       <c r="EL2">
-        <v>12.895834</v>
+        <v>19.52005</v>
       </c>
       <c r="EM2">
-        <v>130.59793</v>
+        <v>130.51275</v>
       </c>
       <c r="EN2">
-        <v>117.28822</v>
+        <v>117.2906</v>
       </c>
       <c r="EO2">
-        <v>107.77496</v>
+        <v>107.74782</v>
       </c>
       <c r="EP2">
-        <v>158.50774</v>
+        <v>158.47482</v>
       </c>
       <c r="EQ2">
-        <v>107.7721</v>
+        <v>107.74508</v>
       </c>
       <c r="ER2">
-        <v>107.88948</v>
+        <v>107.74651</v>
       </c>
       <c r="ES2">
-        <v>115.91972</v>
+        <v>115.8757</v>
       </c>
       <c r="ET2">
         <v>63.300406</v>
       </c>
       <c r="EU2">
-        <v>105.2458</v>
+        <v>105.22555</v>
       </c>
       <c r="EV2">
-        <v>78.464376</v>
+        <v>83.58623900000001</v>
       </c>
       <c r="EW2">
-        <v>105.22601</v>
+        <v>105.20584</v>
       </c>
       <c r="EX2">
-        <v>78.652918</v>
+        <v>83.760932</v>
       </c>
       <c r="EY2">
-        <v>108.24169</v>
+        <v>108.05951</v>
       </c>
       <c r="EZ2">
-        <v>69.182329</v>
+        <v>73.29125000000001</v>
       </c>
       <c r="FA2">
-        <v>68.69300200000001</v>
+        <v>72.56644299999999</v>
       </c>
       <c r="FB2">
-        <v>-91.37674399999999</v>
+        <v>-91.35771299999999</v>
       </c>
       <c r="FC2">
-        <v>-91.773456</v>
+        <v>-91.757419</v>
       </c>
       <c r="FD2">
-        <v>-91.39277899999999</v>
+        <v>-91.36433099999999</v>
       </c>
       <c r="FE2">
-        <v>-86.21263399999999</v>
+        <v>-85.84356699999999</v>
       </c>
       <c r="FF2">
-        <v>-135.00367</v>
+        <v>-134.90036</v>
       </c>
       <c r="FG2">
-        <v>-53.522818</v>
+        <v>-53.522815</v>
       </c>
       <c r="FH2">
-        <v>-85.61714500000001</v>
+        <v>-85.313372</v>
       </c>
       <c r="FI2">
-        <v>-69.08017199999999</v>
+        <v>-67.12677499999999</v>
       </c>
       <c r="FJ2">
-        <v>-69.075717</v>
+        <v>-67.12329699999999</v>
       </c>
       <c r="FK2">
-        <v>-245.15297</v>
+        <v>-240.35576</v>
       </c>
       <c r="FL2">
-        <v>-131.81262</v>
+        <v>-128.80743</v>
       </c>
       <c r="FM2">
-        <v>-245.15281</v>
+        <v>-240.3555</v>
       </c>
       <c r="FN2">
-        <v>-132.11709</v>
+        <v>-129.11971</v>
       </c>
     </row>
     <row r="3" spans="1:170">
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="S54" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="T54" s="1">
-        <v>5.0770992E-05</v>
+        <v>7.8995278E-05</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>184</v>
@@ -28381,448 +28381,448 @@
         <v>184</v>
       </c>
       <c r="W54" s="3">
-        <v>-15.778259</v>
+        <v>-15.768454</v>
       </c>
       <c r="X54" s="1">
-        <v>-162.01997</v>
+        <v>-150.48434</v>
       </c>
       <c r="Y54" s="1">
-        <v>51.664862</v>
+        <v>87.127285</v>
       </c>
       <c r="Z54" s="1">
-        <v>709.51431</v>
+        <v>690.95787</v>
       </c>
       <c r="AA54" s="1">
-        <v>709.61414</v>
+        <v>691.1469</v>
       </c>
       <c r="AB54" s="1">
-        <v>709.56422</v>
+        <v>691.05238</v>
       </c>
       <c r="AC54" s="3">
-        <v>-0.099829376</v>
+        <v>-0.18903107</v>
       </c>
       <c r="AD54" s="1">
-        <v>-812.38452</v>
+        <v>-893.06305</v>
       </c>
       <c r="AE54" s="1">
-        <v>107.64601</v>
+        <v>107.4069</v>
       </c>
       <c r="AF54" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="AG54" s="1">
-        <v>46.159713</v>
+        <v>46.085563</v>
       </c>
       <c r="AH54" s="1">
-        <v>191.42073</v>
+        <v>191.31945</v>
       </c>
       <c r="AI54" s="1">
-        <v>46.16328799999999</v>
+        <v>46.088998</v>
       </c>
       <c r="AJ54" s="1">
-        <v>46.496206</v>
+        <v>46.10558</v>
       </c>
       <c r="AK54" s="1">
-        <v>68.464224</v>
+        <v>68.343332</v>
       </c>
       <c r="AL54" s="3">
-        <v>-281.6917</v>
+        <v>-281.69174</v>
       </c>
       <c r="AM54" s="1">
-        <v>39.25498999999999</v>
+        <v>39.196949</v>
       </c>
       <c r="AN54" s="1">
-        <v>-40.500361</v>
+        <v>-23.081309</v>
       </c>
       <c r="AO54" s="1">
-        <v>39.201059</v>
+        <v>39.143077</v>
       </c>
       <c r="AP54" s="1">
-        <v>-39.815965</v>
+        <v>-22.522335</v>
       </c>
       <c r="AQ54" s="1">
-        <v>47.288157</v>
+        <v>46.918856</v>
       </c>
       <c r="AR54" s="1">
-        <v>-84.724216</v>
+        <v>-62.087073</v>
       </c>
       <c r="AS54" s="1">
-        <v>-88.235649</v>
+        <v>-65.60646100000001</v>
       </c>
       <c r="AT54" s="1">
-        <v>29.970901</v>
+        <v>29.920091</v>
       </c>
       <c r="AU54" s="1">
-        <v>31.018983</v>
+        <v>30.976247</v>
       </c>
       <c r="AV54" s="1">
-        <v>30.016954</v>
+        <v>29.94098</v>
       </c>
       <c r="AW54" s="1">
-        <v>16.13617</v>
+        <v>15.119463</v>
       </c>
       <c r="AX54" s="1">
-        <v>142.33925</v>
+        <v>142.07134</v>
       </c>
       <c r="AY54" s="3">
-        <v>-292.8575</v>
+        <v>-292.8675</v>
       </c>
       <c r="AZ54" s="1">
-        <v>14.555734</v>
+        <v>13.685201</v>
       </c>
       <c r="BA54" s="1">
-        <v>-33.638379</v>
+        <v>-40.946003</v>
       </c>
       <c r="BB54" s="1">
-        <v>-33.654765</v>
+        <v>-40.95957</v>
       </c>
       <c r="BC54" s="1">
-        <v>444.09394</v>
+        <v>430.51475</v>
       </c>
       <c r="BD54" s="1">
-        <v>133.7476</v>
+        <v>126.06136</v>
       </c>
       <c r="BE54" s="1">
-        <v>444.09398</v>
+        <v>430.51478</v>
       </c>
       <c r="BF54" s="1">
-        <v>134.53186</v>
+        <v>126.8634</v>
       </c>
       <c r="BG54" s="1">
-        <v>580.22884</v>
+        <v>580.0849999999999</v>
       </c>
       <c r="BH54" s="3">
-        <v>-89.25073599999999</v>
+        <v>-89.27562999999999</v>
       </c>
       <c r="BI54" s="1">
-        <v>78.292528</v>
+        <v>78.30401500000001</v>
       </c>
       <c r="BJ54" s="1">
-        <v>311.51938</v>
+        <v>311.45285</v>
       </c>
       <c r="BK54" s="1">
-        <v>162.36915</v>
+        <v>158.69032</v>
       </c>
       <c r="BL54" s="1">
-        <v>315.4576499999999</v>
+        <v>315.25077</v>
       </c>
       <c r="BM54" s="1">
-        <v>232.57698</v>
+        <v>232.50244</v>
       </c>
       <c r="BN54" s="1">
-        <v>670.91628</v>
+        <v>666.8632699999999</v>
       </c>
       <c r="BO54" s="1">
-        <v>127.63134</v>
+        <v>110.0516</v>
       </c>
       <c r="BP54" s="1">
-        <v>392.77724</v>
+        <v>386.17093</v>
       </c>
       <c r="BQ54" s="1">
-        <v>128.14648</v>
+        <v>110.55275</v>
       </c>
       <c r="BR54" s="1">
-        <v>391.90574</v>
+        <v>385.36014</v>
       </c>
       <c r="BS54" s="3">
-        <v>-86.077516</v>
+        <v>-67.13221</v>
       </c>
       <c r="BT54" s="1">
-        <v>588.31655</v>
+        <v>478.80101</v>
       </c>
       <c r="BU54" s="1">
-        <v>588.32516</v>
+        <v>478.68233</v>
       </c>
       <c r="BV54" s="1">
-        <v>262.82477</v>
+        <v>262.7745</v>
       </c>
       <c r="BW54" s="1">
-        <v>144.85895</v>
+        <v>144.67084</v>
       </c>
       <c r="BX54" s="1">
-        <v>282.16986</v>
+        <v>281.94418</v>
       </c>
       <c r="BY54" s="1">
-        <v>22.024103</v>
+        <v>25.391477</v>
       </c>
       <c r="BZ54" s="1">
-        <v>288.14205</v>
+        <v>287.98946</v>
       </c>
       <c r="CA54" s="3">
-        <v>-53.514763</v>
+        <v>-53.524761</v>
       </c>
       <c r="CB54" s="1">
-        <v>195.94405</v>
+        <v>93.428065</v>
       </c>
       <c r="CC54" s="1">
-        <v>102.57535</v>
+        <v>227.47829</v>
       </c>
       <c r="CD54" s="1">
-        <v>101.97727</v>
+        <v>227.02705</v>
       </c>
       <c r="CE54" s="3">
-        <v>-236.21964</v>
+        <v>-225.21061</v>
       </c>
       <c r="CF54" s="3">
-        <v>-118.91468</v>
+        <v>-109.25176</v>
       </c>
       <c r="CG54" s="3">
-        <v>-236.18762</v>
+        <v>-225.15797</v>
       </c>
       <c r="CH54" s="3">
-        <v>-119.22126</v>
+        <v>-109.59966</v>
       </c>
       <c r="CI54" s="1">
-        <v>358.20412</v>
+        <v>357.96507</v>
       </c>
       <c r="CJ54" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="CK54" s="1">
-        <v>327.8515</v>
+        <v>327.77739</v>
       </c>
       <c r="CL54" s="1">
-        <v>473.12149</v>
+        <v>473.02023</v>
       </c>
       <c r="CM54" s="1">
-        <v>327.85176</v>
+        <v>327.77764</v>
       </c>
       <c r="CN54" s="1">
-        <v>328.1808</v>
+        <v>327.79034</v>
       </c>
       <c r="CO54" s="1">
-        <v>350.13937</v>
+        <v>350.01855</v>
       </c>
       <c r="CP54" s="3">
-        <v>0.02739104</v>
+        <v>0.027386477</v>
       </c>
       <c r="CQ54" s="1">
-        <v>320.947</v>
-      </c>
-      <c r="CR54" s="3">
-        <v>241.21129</v>
+        <v>320.88977</v>
+      </c>
+      <c r="CR54" s="1">
+        <v>258.62631</v>
       </c>
       <c r="CS54" s="1">
-        <v>320.89302</v>
-      </c>
-      <c r="CT54" s="3">
-        <v>241.89572</v>
+        <v>320.83591</v>
+      </c>
+      <c r="CT54" s="1">
+        <v>259.18538</v>
       </c>
       <c r="CU54" s="1">
-        <v>329.00993</v>
+        <v>328.6153</v>
       </c>
       <c r="CV54" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CW54" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CX54" s="1">
-        <v>322.77759</v>
+        <v>322.7268</v>
       </c>
       <c r="CY54" s="1">
-        <v>323.82995</v>
+        <v>323.78723</v>
       </c>
       <c r="CZ54" s="1">
-        <v>322.82206</v>
+        <v>322.74612</v>
       </c>
       <c r="DA54" s="1">
-        <v>308.82383</v>
+        <v>307.80488</v>
       </c>
       <c r="DB54" s="1">
-        <v>435.16997</v>
+        <v>434.90213</v>
       </c>
       <c r="DC54" s="3">
-        <v>0.0080709205</v>
+        <v>-0.0019261682</v>
       </c>
       <c r="DD54" s="1">
-        <v>307.14857</v>
+        <v>306.32375</v>
       </c>
       <c r="DE54" s="3">
-        <v>214.9356</v>
+        <v>204.07356</v>
       </c>
       <c r="DF54" s="3">
-        <v>214.93563</v>
+        <v>204.07359</v>
       </c>
       <c r="DG54" s="1">
-        <v>736.9589100000001</v>
+        <v>723.3785799999999</v>
       </c>
       <c r="DH54" s="1">
-        <v>426.61177</v>
+        <v>418.92378</v>
       </c>
       <c r="DI54" s="1">
-        <v>736.95894</v>
+        <v>723.3786</v>
       </c>
       <c r="DJ54" s="1">
-        <v>427.39603</v>
+        <v>419.72583</v>
       </c>
       <c r="DK54" s="1">
-        <v>710.82677</v>
+        <v>710.59775</v>
       </c>
       <c r="DL54" s="1">
-        <v>28.03748</v>
+        <v>28.014969</v>
       </c>
       <c r="DM54" s="1">
-        <v>186.06749</v>
+        <v>186.05183</v>
       </c>
       <c r="DN54" s="1">
-        <v>470.02712</v>
+        <v>469.92767</v>
       </c>
       <c r="DO54" s="1">
-        <v>270.14125</v>
+        <v>266.43541</v>
       </c>
       <c r="DP54" s="1">
-        <v>423.34714</v>
+        <v>422.99728</v>
       </c>
       <c r="DQ54" s="1">
-        <v>348.49669</v>
+        <v>348.37814</v>
       </c>
       <c r="DR54" s="1">
-        <v>734.21669</v>
+        <v>730.16368</v>
       </c>
       <c r="DS54" s="1">
-        <v>232.87714</v>
+        <v>215.27714</v>
       </c>
       <c r="DT54" s="1">
-        <v>471.24162</v>
+        <v>469.75717</v>
       </c>
       <c r="DU54" s="1">
-        <v>233.37249</v>
+        <v>215.75859</v>
       </c>
       <c r="DV54" s="1">
-        <v>470.55866</v>
+        <v>469.12107</v>
       </c>
       <c r="DW54" s="1">
-        <v>22.164174</v>
+        <v>40.927302</v>
       </c>
       <c r="DX54" s="1">
-        <v>657.49888</v>
+        <v>552.09226</v>
       </c>
       <c r="DY54" s="1">
-        <v>657.01816</v>
+        <v>551.24878</v>
       </c>
       <c r="DZ54" s="1">
-        <v>354.20151</v>
+        <v>354.13221</v>
       </c>
       <c r="EA54" s="1">
-        <v>236.6324</v>
+        <v>236.42826</v>
       </c>
       <c r="EB54" s="1">
-        <v>373.56264</v>
+        <v>373.30851</v>
       </c>
       <c r="EC54" s="1">
-        <v>108.23674</v>
+        <v>111.23504</v>
       </c>
       <c r="ED54" s="1">
-        <v>423.14572</v>
-      </c>
-      <c r="EE54" s="1">
-        <v>0.0080543391</v>
+        <v>422.88982</v>
+      </c>
+      <c r="EE54" s="3">
+        <v>-0.0019457277</v>
       </c>
       <c r="EF54" s="1">
-        <v>281.56119</v>
+        <v>178.74144</v>
       </c>
       <c r="EG54" s="1">
-        <v>171.65552</v>
+        <v>294.60507</v>
       </c>
       <c r="EH54" s="1">
-        <v>171.05299</v>
+        <v>294.15034</v>
       </c>
       <c r="EI54" s="1">
-        <v>8.933324899999999</v>
+        <v>15.145152</v>
       </c>
       <c r="EJ54" s="1">
-        <v>12.89794</v>
+        <v>19.555665</v>
       </c>
       <c r="EK54" s="1">
-        <v>8.965188400000001</v>
+        <v>15.197524</v>
       </c>
       <c r="EL54" s="1">
-        <v>12.895834</v>
+        <v>19.52005</v>
       </c>
       <c r="EM54" s="1">
-        <v>130.59793</v>
+        <v>130.51275</v>
       </c>
       <c r="EN54" s="1">
-        <v>117.28822</v>
+        <v>117.2906</v>
       </c>
       <c r="EO54" s="1">
-        <v>107.77496</v>
+        <v>107.74782</v>
       </c>
       <c r="EP54" s="1">
-        <v>158.50774</v>
+        <v>158.47482</v>
       </c>
       <c r="EQ54" s="1">
-        <v>107.7721</v>
+        <v>107.74508</v>
       </c>
       <c r="ER54" s="1">
-        <v>107.88948</v>
+        <v>107.74651</v>
       </c>
       <c r="ES54" s="1">
-        <v>115.91972</v>
+        <v>115.8757</v>
       </c>
       <c r="ET54" s="1">
         <v>63.300406</v>
       </c>
       <c r="EU54" s="1">
-        <v>105.2458</v>
+        <v>105.22555</v>
       </c>
       <c r="EV54" s="1">
-        <v>78.464376</v>
+        <v>83.58623900000001</v>
       </c>
       <c r="EW54" s="1">
-        <v>105.22601</v>
+        <v>105.20584</v>
       </c>
       <c r="EX54" s="1">
-        <v>78.652918</v>
+        <v>83.760932</v>
       </c>
       <c r="EY54" s="1">
-        <v>108.24169</v>
+        <v>108.05951</v>
       </c>
       <c r="EZ54" s="1">
-        <v>69.182329</v>
+        <v>73.29125000000001</v>
       </c>
       <c r="FA54" s="1">
-        <v>68.69300200000001</v>
+        <v>72.56644299999999</v>
       </c>
       <c r="FB54" s="1">
-        <v>-91.37674399999999</v>
+        <v>-91.35771299999999</v>
       </c>
       <c r="FC54" s="1">
-        <v>-91.773456</v>
+        <v>-91.757419</v>
       </c>
       <c r="FD54" s="1">
-        <v>-91.39277899999999</v>
+        <v>-91.36433099999999</v>
       </c>
       <c r="FE54" s="1">
-        <v>-86.21263399999999</v>
+        <v>-85.84356699999999</v>
       </c>
       <c r="FF54" s="1">
-        <v>-135.00367</v>
+        <v>-134.90036</v>
       </c>
       <c r="FG54" s="1">
-        <v>-53.522818</v>
+        <v>-53.522815</v>
       </c>
       <c r="FH54" s="1">
-        <v>-85.61714500000001</v>
+        <v>-85.313372</v>
       </c>
       <c r="FI54" s="1">
-        <v>-69.08017199999999</v>
+        <v>-67.12677499999999</v>
       </c>
       <c r="FJ54" s="1">
-        <v>-69.075717</v>
+        <v>-67.12329699999999</v>
       </c>
       <c r="FK54" s="1">
-        <v>-245.15297</v>
+        <v>-240.35576</v>
       </c>
       <c r="FL54" s="1">
-        <v>-131.81262</v>
+        <v>-128.80743</v>
       </c>
       <c r="FM54" s="1">
-        <v>-245.15281</v>
+        <v>-240.3555</v>
       </c>
       <c r="FN54" s="1">
-        <v>-132.11709</v>
+        <v>-129.11971</v>
       </c>
     </row>
     <row r="55" spans="1:170" s="1" customFormat="1">
@@ -28833,13 +28833,13 @@
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="S55" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="T55" s="1">
-        <v>5.0770992E-05</v>
+        <v>7.8995278E-05</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>184</v>
@@ -28848,448 +28848,448 @@
         <v>184</v>
       </c>
       <c r="W55" s="3">
-        <v>-15.778259</v>
+        <v>-15.768454</v>
       </c>
       <c r="X55" s="1">
-        <v>-162.01997</v>
+        <v>-150.48434</v>
       </c>
       <c r="Y55" s="1">
-        <v>51.664862</v>
+        <v>87.127285</v>
       </c>
       <c r="Z55" s="1">
-        <v>709.51431</v>
+        <v>690.95787</v>
       </c>
       <c r="AA55" s="1">
-        <v>709.61414</v>
+        <v>691.1469</v>
       </c>
       <c r="AB55" s="1">
-        <v>709.56422</v>
+        <v>691.05238</v>
       </c>
       <c r="AC55" s="3">
-        <v>-0.099829376</v>
+        <v>-0.18903107</v>
       </c>
       <c r="AD55" s="1">
-        <v>-812.38452</v>
+        <v>-893.06305</v>
       </c>
       <c r="AE55" s="1">
-        <v>107.64601</v>
+        <v>107.4069</v>
       </c>
       <c r="AF55" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="AG55" s="1">
-        <v>46.159713</v>
+        <v>46.085563</v>
       </c>
       <c r="AH55" s="1">
-        <v>191.42073</v>
+        <v>191.31945</v>
       </c>
       <c r="AI55" s="1">
-        <v>46.16328799999999</v>
+        <v>46.088998</v>
       </c>
       <c r="AJ55" s="1">
-        <v>46.496206</v>
+        <v>46.10558</v>
       </c>
       <c r="AK55" s="1">
-        <v>68.464224</v>
+        <v>68.343332</v>
       </c>
       <c r="AL55" s="3">
-        <v>-281.6917</v>
+        <v>-281.69174</v>
       </c>
       <c r="AM55" s="1">
-        <v>39.25498999999999</v>
+        <v>39.196949</v>
       </c>
       <c r="AN55" s="1">
-        <v>-40.500361</v>
+        <v>-23.081309</v>
       </c>
       <c r="AO55" s="1">
-        <v>39.201059</v>
+        <v>39.143077</v>
       </c>
       <c r="AP55" s="1">
-        <v>-39.815965</v>
+        <v>-22.522335</v>
       </c>
       <c r="AQ55" s="1">
-        <v>47.288157</v>
+        <v>46.918856</v>
       </c>
       <c r="AR55" s="1">
-        <v>-84.724216</v>
+        <v>-62.087073</v>
       </c>
       <c r="AS55" s="1">
-        <v>-88.235649</v>
+        <v>-65.60646100000001</v>
       </c>
       <c r="AT55" s="1">
-        <v>29.970901</v>
+        <v>29.920091</v>
       </c>
       <c r="AU55" s="1">
-        <v>31.018983</v>
+        <v>30.976247</v>
       </c>
       <c r="AV55" s="1">
-        <v>30.016954</v>
+        <v>29.94098</v>
       </c>
       <c r="AW55" s="1">
-        <v>16.13617</v>
+        <v>15.119463</v>
       </c>
       <c r="AX55" s="1">
-        <v>142.33925</v>
+        <v>142.07134</v>
       </c>
       <c r="AY55" s="3">
-        <v>-292.8575</v>
+        <v>-292.8675</v>
       </c>
       <c r="AZ55" s="1">
-        <v>14.555734</v>
+        <v>13.685201</v>
       </c>
       <c r="BA55" s="1">
-        <v>-33.638379</v>
+        <v>-40.946003</v>
       </c>
       <c r="BB55" s="1">
-        <v>-33.654765</v>
+        <v>-40.95957</v>
       </c>
       <c r="BC55" s="1">
-        <v>444.09394</v>
+        <v>430.51475</v>
       </c>
       <c r="BD55" s="1">
-        <v>133.7476</v>
+        <v>126.06136</v>
       </c>
       <c r="BE55" s="1">
-        <v>444.09398</v>
+        <v>430.51478</v>
       </c>
       <c r="BF55" s="1">
-        <v>134.53186</v>
+        <v>126.8634</v>
       </c>
       <c r="BG55" s="1">
-        <v>580.22884</v>
+        <v>580.0849999999999</v>
       </c>
       <c r="BH55" s="3">
-        <v>-89.25073599999999</v>
+        <v>-89.27562999999999</v>
       </c>
       <c r="BI55" s="1">
-        <v>78.292528</v>
+        <v>78.30401500000001</v>
       </c>
       <c r="BJ55" s="1">
-        <v>311.51938</v>
+        <v>311.45285</v>
       </c>
       <c r="BK55" s="1">
-        <v>162.36915</v>
+        <v>158.69032</v>
       </c>
       <c r="BL55" s="1">
-        <v>315.4576499999999</v>
+        <v>315.25077</v>
       </c>
       <c r="BM55" s="1">
-        <v>232.57698</v>
+        <v>232.50244</v>
       </c>
       <c r="BN55" s="1">
-        <v>670.91628</v>
+        <v>666.8632699999999</v>
       </c>
       <c r="BO55" s="1">
-        <v>127.63134</v>
+        <v>110.0516</v>
       </c>
       <c r="BP55" s="1">
-        <v>392.77724</v>
+        <v>386.17093</v>
       </c>
       <c r="BQ55" s="1">
-        <v>128.14648</v>
+        <v>110.55275</v>
       </c>
       <c r="BR55" s="1">
-        <v>391.90574</v>
+        <v>385.36014</v>
       </c>
       <c r="BS55" s="3">
-        <v>-86.077516</v>
+        <v>-67.13221</v>
       </c>
       <c r="BT55" s="1">
-        <v>588.31655</v>
+        <v>478.80101</v>
       </c>
       <c r="BU55" s="1">
-        <v>588.32516</v>
+        <v>478.68233</v>
       </c>
       <c r="BV55" s="1">
-        <v>262.82477</v>
+        <v>262.7745</v>
       </c>
       <c r="BW55" s="1">
-        <v>144.85895</v>
+        <v>144.67084</v>
       </c>
       <c r="BX55" s="1">
-        <v>282.16986</v>
+        <v>281.94418</v>
       </c>
       <c r="BY55" s="1">
-        <v>22.024103</v>
+        <v>25.391477</v>
       </c>
       <c r="BZ55" s="1">
-        <v>288.14205</v>
+        <v>287.98946</v>
       </c>
       <c r="CA55" s="3">
-        <v>-53.514763</v>
+        <v>-53.524761</v>
       </c>
       <c r="CB55" s="1">
-        <v>195.94405</v>
+        <v>93.428065</v>
       </c>
       <c r="CC55" s="1">
-        <v>102.57535</v>
+        <v>227.47829</v>
       </c>
       <c r="CD55" s="1">
-        <v>101.97727</v>
+        <v>227.02705</v>
       </c>
       <c r="CE55" s="3">
-        <v>-236.21964</v>
+        <v>-225.21061</v>
       </c>
       <c r="CF55" s="3">
-        <v>-118.91468</v>
+        <v>-109.25176</v>
       </c>
       <c r="CG55" s="3">
-        <v>-236.18762</v>
+        <v>-225.15797</v>
       </c>
       <c r="CH55" s="3">
-        <v>-119.22126</v>
+        <v>-109.59966</v>
       </c>
       <c r="CI55" s="1">
-        <v>358.20412</v>
+        <v>357.96507</v>
       </c>
       <c r="CJ55" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="CK55" s="1">
-        <v>327.8515</v>
+        <v>327.77739</v>
       </c>
       <c r="CL55" s="1">
-        <v>473.12149</v>
+        <v>473.02023</v>
       </c>
       <c r="CM55" s="1">
-        <v>327.85176</v>
+        <v>327.77764</v>
       </c>
       <c r="CN55" s="1">
-        <v>328.1808</v>
+        <v>327.79034</v>
       </c>
       <c r="CO55" s="1">
-        <v>350.13937</v>
+        <v>350.01855</v>
       </c>
       <c r="CP55" s="3">
-        <v>0.02739104</v>
+        <v>0.027386477</v>
       </c>
       <c r="CQ55" s="1">
-        <v>320.947</v>
-      </c>
-      <c r="CR55" s="3">
-        <v>241.21129</v>
+        <v>320.88977</v>
+      </c>
+      <c r="CR55" s="1">
+        <v>258.62631</v>
       </c>
       <c r="CS55" s="1">
-        <v>320.89302</v>
-      </c>
-      <c r="CT55" s="3">
-        <v>241.89572</v>
+        <v>320.83591</v>
+      </c>
+      <c r="CT55" s="1">
+        <v>259.18538</v>
       </c>
       <c r="CU55" s="1">
-        <v>329.00993</v>
+        <v>328.6153</v>
       </c>
       <c r="CV55" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CW55" s="3">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CX55" s="1">
-        <v>322.77759</v>
+        <v>322.7268</v>
       </c>
       <c r="CY55" s="1">
-        <v>323.82995</v>
+        <v>323.78723</v>
       </c>
       <c r="CZ55" s="1">
-        <v>322.82206</v>
+        <v>322.74612</v>
       </c>
       <c r="DA55" s="1">
-        <v>308.82383</v>
+        <v>307.80488</v>
       </c>
       <c r="DB55" s="1">
-        <v>435.16997</v>
+        <v>434.90213</v>
       </c>
       <c r="DC55" s="3">
-        <v>0.0080709205</v>
+        <v>-0.0019261682</v>
       </c>
       <c r="DD55" s="1">
-        <v>307.14857</v>
+        <v>306.32375</v>
       </c>
       <c r="DE55" s="3">
-        <v>214.9356</v>
+        <v>204.07356</v>
       </c>
       <c r="DF55" s="3">
-        <v>214.93563</v>
+        <v>204.07359</v>
       </c>
       <c r="DG55" s="1">
-        <v>736.9589100000001</v>
+        <v>723.3785799999999</v>
       </c>
       <c r="DH55" s="1">
-        <v>426.61177</v>
+        <v>418.92378</v>
       </c>
       <c r="DI55" s="1">
-        <v>736.95894</v>
+        <v>723.3786</v>
       </c>
       <c r="DJ55" s="1">
-        <v>427.39603</v>
+        <v>419.72583</v>
       </c>
       <c r="DK55" s="1">
-        <v>710.82677</v>
+        <v>710.59775</v>
       </c>
       <c r="DL55" s="1">
-        <v>28.03748</v>
+        <v>28.014969</v>
       </c>
       <c r="DM55" s="1">
-        <v>186.06749</v>
+        <v>186.05183</v>
       </c>
       <c r="DN55" s="1">
-        <v>470.02712</v>
+        <v>469.92767</v>
       </c>
       <c r="DO55" s="1">
-        <v>270.14125</v>
+        <v>266.43541</v>
       </c>
       <c r="DP55" s="1">
-        <v>423.34714</v>
+        <v>422.99728</v>
       </c>
       <c r="DQ55" s="1">
-        <v>348.49669</v>
+        <v>348.37814</v>
       </c>
       <c r="DR55" s="1">
-        <v>734.21669</v>
+        <v>730.16368</v>
       </c>
       <c r="DS55" s="1">
-        <v>232.87714</v>
+        <v>215.27714</v>
       </c>
       <c r="DT55" s="1">
-        <v>471.24162</v>
+        <v>469.75717</v>
       </c>
       <c r="DU55" s="1">
-        <v>233.37249</v>
+        <v>215.75859</v>
       </c>
       <c r="DV55" s="1">
-        <v>470.55866</v>
+        <v>469.12107</v>
       </c>
       <c r="DW55" s="1">
-        <v>22.164174</v>
+        <v>40.927302</v>
       </c>
       <c r="DX55" s="1">
-        <v>657.49888</v>
+        <v>552.09226</v>
       </c>
       <c r="DY55" s="1">
-        <v>657.01816</v>
+        <v>551.24878</v>
       </c>
       <c r="DZ55" s="1">
-        <v>354.20151</v>
+        <v>354.13221</v>
       </c>
       <c r="EA55" s="1">
-        <v>236.6324</v>
+        <v>236.42826</v>
       </c>
       <c r="EB55" s="1">
-        <v>373.56264</v>
+        <v>373.30851</v>
       </c>
       <c r="EC55" s="1">
-        <v>108.23674</v>
+        <v>111.23504</v>
       </c>
       <c r="ED55" s="1">
-        <v>423.14572</v>
-      </c>
-      <c r="EE55" s="1">
-        <v>0.0080543391</v>
+        <v>422.88982</v>
+      </c>
+      <c r="EE55" s="3">
+        <v>-0.0019457277</v>
       </c>
       <c r="EF55" s="1">
-        <v>281.56119</v>
+        <v>178.74144</v>
       </c>
       <c r="EG55" s="1">
-        <v>171.65552</v>
+        <v>294.60507</v>
       </c>
       <c r="EH55" s="1">
-        <v>171.05299</v>
+        <v>294.15034</v>
       </c>
       <c r="EI55" s="1">
-        <v>8.933324899999999</v>
+        <v>15.145152</v>
       </c>
       <c r="EJ55" s="1">
-        <v>12.89794</v>
+        <v>19.555665</v>
       </c>
       <c r="EK55" s="1">
-        <v>8.965188400000001</v>
+        <v>15.197524</v>
       </c>
       <c r="EL55" s="1">
-        <v>12.895834</v>
+        <v>19.52005</v>
       </c>
       <c r="EM55" s="1">
-        <v>130.59793</v>
+        <v>130.51275</v>
       </c>
       <c r="EN55" s="1">
-        <v>117.28822</v>
+        <v>117.2906</v>
       </c>
       <c r="EO55" s="1">
-        <v>107.77496</v>
+        <v>107.74782</v>
       </c>
       <c r="EP55" s="1">
-        <v>158.50774</v>
+        <v>158.47482</v>
       </c>
       <c r="EQ55" s="1">
-        <v>107.7721</v>
+        <v>107.74508</v>
       </c>
       <c r="ER55" s="1">
-        <v>107.88948</v>
+        <v>107.74651</v>
       </c>
       <c r="ES55" s="1">
-        <v>115.91972</v>
+        <v>115.8757</v>
       </c>
       <c r="ET55" s="1">
         <v>63.300406</v>
       </c>
       <c r="EU55" s="1">
-        <v>105.2458</v>
+        <v>105.22555</v>
       </c>
       <c r="EV55" s="1">
-        <v>78.464376</v>
+        <v>83.58623900000001</v>
       </c>
       <c r="EW55" s="1">
-        <v>105.22601</v>
+        <v>105.20584</v>
       </c>
       <c r="EX55" s="1">
-        <v>78.652918</v>
+        <v>83.760932</v>
       </c>
       <c r="EY55" s="1">
-        <v>108.24169</v>
+        <v>108.05951</v>
       </c>
       <c r="EZ55" s="1">
-        <v>69.182329</v>
+        <v>73.29125000000001</v>
       </c>
       <c r="FA55" s="1">
-        <v>68.69300200000001</v>
+        <v>72.56644299999999</v>
       </c>
       <c r="FB55" s="1">
-        <v>-91.37674399999999</v>
+        <v>-91.35771299999999</v>
       </c>
       <c r="FC55" s="1">
-        <v>-91.773456</v>
+        <v>-91.757419</v>
       </c>
       <c r="FD55" s="1">
-        <v>-91.39277899999999</v>
+        <v>-91.36433099999999</v>
       </c>
       <c r="FE55" s="1">
-        <v>-86.21263399999999</v>
+        <v>-85.84356699999999</v>
       </c>
       <c r="FF55" s="1">
-        <v>-135.00367</v>
+        <v>-134.90036</v>
       </c>
       <c r="FG55" s="1">
-        <v>-53.522818</v>
+        <v>-53.522815</v>
       </c>
       <c r="FH55" s="1">
-        <v>-85.61714500000001</v>
+        <v>-85.313372</v>
       </c>
       <c r="FI55" s="1">
-        <v>-69.08017199999999</v>
+        <v>-67.12677499999999</v>
       </c>
       <c r="FJ55" s="1">
-        <v>-69.075717</v>
+        <v>-67.12329699999999</v>
       </c>
       <c r="FK55" s="1">
-        <v>-245.15297</v>
+        <v>-240.35576</v>
       </c>
       <c r="FL55" s="1">
-        <v>-131.81262</v>
+        <v>-128.80743</v>
       </c>
       <c r="FM55" s="1">
-        <v>-245.15281</v>
+        <v>-240.3555</v>
       </c>
       <c r="FN55" s="1">
-        <v>-132.11709</v>
+        <v>-129.11971</v>
       </c>
     </row>
     <row r="56" spans="1:170" s="1" customFormat="1">
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="R60" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="S60" s="1">
-        <v>9.653001E-05</v>
+        <v>9.4234842E-05</v>
       </c>
       <c r="T60" s="1">
-        <v>5.0770992E-05</v>
+        <v>7.8995278E-05</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>184</v>
@@ -30037,448 +30037,448 @@
         <v>184</v>
       </c>
       <c r="W60" s="1">
-        <v>-15.778259</v>
+        <v>-15.768454</v>
       </c>
       <c r="X60" s="1">
-        <v>-162.01997</v>
+        <v>-150.48434</v>
       </c>
       <c r="Y60" s="1">
-        <v>51.664862</v>
+        <v>87.127285</v>
       </c>
       <c r="Z60" s="1">
-        <v>709.51431</v>
+        <v>690.95787</v>
       </c>
       <c r="AA60" s="1">
-        <v>709.61414</v>
+        <v>691.1469</v>
       </c>
       <c r="AB60" s="1">
-        <v>709.56422</v>
+        <v>691.05238</v>
       </c>
       <c r="AC60" s="1">
-        <v>-0.099829376</v>
+        <v>-0.18903107</v>
       </c>
       <c r="AD60" s="1">
-        <v>-812.38452</v>
+        <v>-893.06305</v>
       </c>
       <c r="AE60" s="1">
-        <v>107.64601</v>
+        <v>107.4069</v>
       </c>
       <c r="AF60" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="AG60" s="1">
-        <v>46.159713</v>
+        <v>46.085563</v>
       </c>
       <c r="AH60" s="1">
-        <v>191.42073</v>
+        <v>191.31945</v>
       </c>
       <c r="AI60" s="1">
-        <v>46.16328799999999</v>
+        <v>46.088998</v>
       </c>
       <c r="AJ60" s="1">
-        <v>46.496206</v>
+        <v>46.10558</v>
       </c>
       <c r="AK60" s="1">
-        <v>68.464224</v>
+        <v>68.343332</v>
       </c>
       <c r="AL60" s="1">
-        <v>-281.6917</v>
+        <v>-281.69174</v>
       </c>
       <c r="AM60" s="1">
-        <v>39.25498999999999</v>
+        <v>39.196949</v>
       </c>
       <c r="AN60" s="1">
-        <v>-40.500361</v>
+        <v>-23.081309</v>
       </c>
       <c r="AO60" s="1">
-        <v>39.201059</v>
+        <v>39.143077</v>
       </c>
       <c r="AP60" s="1">
-        <v>-39.815965</v>
+        <v>-22.522335</v>
       </c>
       <c r="AQ60" s="1">
-        <v>47.288157</v>
+        <v>46.918856</v>
       </c>
       <c r="AR60" s="1">
-        <v>-84.724216</v>
+        <v>-62.087073</v>
       </c>
       <c r="AS60" s="1">
-        <v>-88.235649</v>
+        <v>-65.60646100000001</v>
       </c>
       <c r="AT60" s="1">
-        <v>29.970901</v>
+        <v>29.920091</v>
       </c>
       <c r="AU60" s="1">
-        <v>31.018983</v>
+        <v>30.976247</v>
       </c>
       <c r="AV60" s="1">
-        <v>30.016954</v>
+        <v>29.94098</v>
       </c>
       <c r="AW60" s="1">
-        <v>16.13617</v>
+        <v>15.119463</v>
       </c>
       <c r="AX60" s="1">
-        <v>142.33925</v>
+        <v>142.07134</v>
       </c>
       <c r="AY60" s="1">
-        <v>-292.8575</v>
+        <v>-292.8675</v>
       </c>
       <c r="AZ60" s="1">
-        <v>14.555734</v>
+        <v>13.685201</v>
       </c>
       <c r="BA60" s="1">
-        <v>-33.638379</v>
+        <v>-40.946003</v>
       </c>
       <c r="BB60" s="1">
-        <v>-33.654765</v>
+        <v>-40.95957</v>
       </c>
       <c r="BC60" s="1">
-        <v>444.09394</v>
+        <v>430.51475</v>
       </c>
       <c r="BD60" s="1">
-        <v>133.7476</v>
+        <v>126.06136</v>
       </c>
       <c r="BE60" s="1">
-        <v>444.09398</v>
+        <v>430.51478</v>
       </c>
       <c r="BF60" s="1">
-        <v>134.53186</v>
+        <v>126.8634</v>
       </c>
       <c r="BG60" s="1">
-        <v>580.22884</v>
+        <v>580.0849999999999</v>
       </c>
       <c r="BH60" s="1">
-        <v>-89.25073599999999</v>
+        <v>-89.27562999999999</v>
       </c>
       <c r="BI60" s="1">
-        <v>78.292528</v>
+        <v>78.30401500000001</v>
       </c>
       <c r="BJ60" s="1">
-        <v>311.51938</v>
+        <v>311.45285</v>
       </c>
       <c r="BK60" s="1">
-        <v>162.36915</v>
+        <v>158.69032</v>
       </c>
       <c r="BL60" s="1">
-        <v>315.4576499999999</v>
+        <v>315.25077</v>
       </c>
       <c r="BM60" s="1">
-        <v>232.57698</v>
+        <v>232.50244</v>
       </c>
       <c r="BN60" s="1">
-        <v>670.91628</v>
+        <v>666.8632699999999</v>
       </c>
       <c r="BO60" s="1">
-        <v>127.63134</v>
+        <v>110.0516</v>
       </c>
       <c r="BP60" s="1">
-        <v>392.77724</v>
+        <v>386.17093</v>
       </c>
       <c r="BQ60" s="1">
-        <v>128.14648</v>
+        <v>110.55275</v>
       </c>
       <c r="BR60" s="1">
-        <v>391.90574</v>
+        <v>385.36014</v>
       </c>
       <c r="BS60" s="1">
-        <v>-86.077516</v>
+        <v>-67.13221</v>
       </c>
       <c r="BT60" s="1">
-        <v>588.31655</v>
+        <v>478.80101</v>
       </c>
       <c r="BU60" s="1">
-        <v>588.32516</v>
+        <v>478.68233</v>
       </c>
       <c r="BV60" s="1">
-        <v>262.82477</v>
+        <v>262.7745</v>
       </c>
       <c r="BW60" s="1">
-        <v>144.85895</v>
+        <v>144.67084</v>
       </c>
       <c r="BX60" s="1">
-        <v>282.16986</v>
+        <v>281.94418</v>
       </c>
       <c r="BY60" s="1">
-        <v>22.024103</v>
+        <v>25.391477</v>
       </c>
       <c r="BZ60" s="1">
-        <v>288.14205</v>
+        <v>287.98946</v>
       </c>
       <c r="CA60" s="1">
-        <v>-53.514763</v>
+        <v>-53.524761</v>
       </c>
       <c r="CB60" s="1">
-        <v>195.94405</v>
+        <v>93.428065</v>
       </c>
       <c r="CC60" s="1">
-        <v>102.57535</v>
+        <v>227.47829</v>
       </c>
       <c r="CD60" s="1">
-        <v>101.97727</v>
+        <v>227.02705</v>
       </c>
       <c r="CE60" s="1">
-        <v>-236.21964</v>
+        <v>-225.21061</v>
       </c>
       <c r="CF60" s="1">
-        <v>-118.91468</v>
+        <v>-109.25176</v>
       </c>
       <c r="CG60" s="1">
-        <v>-236.18762</v>
+        <v>-225.15797</v>
       </c>
       <c r="CH60" s="1">
-        <v>-119.22126</v>
+        <v>-109.59966</v>
       </c>
       <c r="CI60" s="1">
-        <v>358.20412</v>
+        <v>357.96507</v>
       </c>
       <c r="CJ60" s="1">
-        <v>353.57568</v>
+        <v>353.58214</v>
       </c>
       <c r="CK60" s="1">
-        <v>327.8515</v>
+        <v>327.77739</v>
       </c>
       <c r="CL60" s="1">
-        <v>473.12149</v>
+        <v>473.02023</v>
       </c>
       <c r="CM60" s="1">
-        <v>327.85176</v>
+        <v>327.77764</v>
       </c>
       <c r="CN60" s="1">
-        <v>328.1808</v>
+        <v>327.79034</v>
       </c>
       <c r="CO60" s="1">
-        <v>350.13937</v>
+        <v>350.01855</v>
       </c>
       <c r="CP60" s="1">
-        <v>0.02739104</v>
+        <v>0.027386477</v>
       </c>
       <c r="CQ60" s="1">
-        <v>320.947</v>
+        <v>320.88977</v>
       </c>
       <c r="CR60" s="1">
-        <v>241.21129</v>
+        <v>258.62631</v>
       </c>
       <c r="CS60" s="1">
-        <v>320.89302</v>
+        <v>320.83591</v>
       </c>
       <c r="CT60" s="1">
-        <v>241.89572</v>
+        <v>259.18538</v>
       </c>
       <c r="CU60" s="1">
-        <v>329.00993</v>
+        <v>328.6153</v>
       </c>
       <c r="CV60" s="1">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CW60" s="1">
-        <v>149.24307</v>
+        <v>174.30077</v>
       </c>
       <c r="CX60" s="1">
-        <v>322.77759</v>
+        <v>322.7268</v>
       </c>
       <c r="CY60" s="1">
-        <v>323.82995</v>
+        <v>323.78723</v>
       </c>
       <c r="CZ60" s="1">
-        <v>322.82206</v>
+        <v>322.74612</v>
       </c>
       <c r="DA60" s="1">
-        <v>308.82383</v>
+        <v>307.80488</v>
       </c>
       <c r="DB60" s="1">
-        <v>435.16997</v>
+        <v>434.90213</v>
       </c>
       <c r="DC60" s="1">
-        <v>0.0080709205</v>
+        <v>-0.0019261682</v>
       </c>
       <c r="DD60" s="1">
-        <v>307.14857</v>
+        <v>306.32375</v>
       </c>
       <c r="DE60" s="1">
-        <v>214.9356</v>
+        <v>204.07356</v>
       </c>
       <c r="DF60" s="1">
-        <v>214.93563</v>
+        <v>204.07359</v>
       </c>
       <c r="DG60" s="1">
-        <v>736.9589100000001</v>
+        <v>723.3785799999999</v>
       </c>
       <c r="DH60" s="1">
-        <v>426.61177</v>
+        <v>418.92378</v>
       </c>
       <c r="DI60" s="1">
-        <v>736.95894</v>
+        <v>723.3786</v>
       </c>
       <c r="DJ60" s="1">
-        <v>427.39603</v>
+        <v>419.72583</v>
       </c>
       <c r="DK60" s="1">
-        <v>710.82677</v>
+        <v>710.59775</v>
       </c>
       <c r="DL60" s="1">
-        <v>28.03748</v>
+        <v>28.014969</v>
       </c>
       <c r="DM60" s="1">
-        <v>186.06749</v>
+        <v>186.05183</v>
       </c>
       <c r="DN60" s="1">
-        <v>470.02712</v>
+        <v>469.92767</v>
       </c>
       <c r="DO60" s="1">
-        <v>270.14125</v>
+        <v>266.43541</v>
       </c>
       <c r="DP60" s="1">
-        <v>423.34714</v>
+        <v>422.99728</v>
       </c>
       <c r="DQ60" s="1">
-        <v>348.49669</v>
+        <v>348.37814</v>
       </c>
       <c r="DR60" s="1">
-        <v>734.21669</v>
+        <v>730.16368</v>
       </c>
       <c r="DS60" s="1">
-        <v>232.87714</v>
+        <v>215.27714</v>
       </c>
       <c r="DT60" s="1">
-        <v>471.24162</v>
+        <v>469.75717</v>
       </c>
       <c r="DU60" s="1">
-        <v>233.37249</v>
+        <v>215.75859</v>
       </c>
       <c r="DV60" s="1">
-        <v>470.55866</v>
+        <v>469.12107</v>
       </c>
       <c r="DW60" s="1">
-        <v>22.164174</v>
+        <v>40.927302</v>
       </c>
       <c r="DX60" s="1">
-        <v>657.49888</v>
+        <v>552.09226</v>
       </c>
       <c r="DY60" s="1">
-        <v>657.01816</v>
+        <v>551.24878</v>
       </c>
       <c r="DZ60" s="1">
-        <v>354.20151</v>
+        <v>354.13221</v>
       </c>
       <c r="EA60" s="1">
-        <v>236.6324</v>
+        <v>236.42826</v>
       </c>
       <c r="EB60" s="1">
-        <v>373.56264</v>
+        <v>373.30851</v>
       </c>
       <c r="EC60" s="1">
-        <v>108.23674</v>
+        <v>111.23504</v>
       </c>
       <c r="ED60" s="1">
-        <v>423.14572</v>
+        <v>422.88982</v>
       </c>
       <c r="EE60" s="1">
-        <v>0.0080543391</v>
+        <v>-0.0019457277</v>
       </c>
       <c r="EF60" s="1">
-        <v>281.56119</v>
+        <v>178.74144</v>
       </c>
       <c r="EG60" s="1">
-        <v>171.65552</v>
+        <v>294.60507</v>
       </c>
       <c r="EH60" s="1">
-        <v>171.05299</v>
+        <v>294.15034</v>
       </c>
       <c r="EI60" s="1">
-        <v>8.933324899999999</v>
+        <v>15.145152</v>
       </c>
       <c r="EJ60" s="1">
-        <v>12.89794</v>
+        <v>19.555665</v>
       </c>
       <c r="EK60" s="1">
-        <v>8.965188400000001</v>
+        <v>15.197524</v>
       </c>
       <c r="EL60" s="1">
-        <v>12.895834</v>
+        <v>19.52005</v>
       </c>
       <c r="EM60" s="1">
-        <v>130.59793</v>
+        <v>130.51275</v>
       </c>
       <c r="EN60" s="1">
-        <v>117.28822</v>
+        <v>117.2906</v>
       </c>
       <c r="EO60" s="1">
-        <v>107.77496</v>
+        <v>107.74782</v>
       </c>
       <c r="EP60" s="1">
-        <v>158.50774</v>
+        <v>158.47482</v>
       </c>
       <c r="EQ60" s="1">
-        <v>107.7721</v>
+        <v>107.74508</v>
       </c>
       <c r="ER60" s="1">
-        <v>107.88948</v>
+        <v>107.74651</v>
       </c>
       <c r="ES60" s="1">
-        <v>115.91972</v>
+        <v>115.8757</v>
       </c>
       <c r="ET60" s="1">
         <v>63.300406</v>
       </c>
       <c r="EU60" s="1">
-        <v>105.2458</v>
+        <v>105.22555</v>
       </c>
       <c r="EV60" s="1">
-        <v>78.464376</v>
+        <v>83.58623900000001</v>
       </c>
       <c r="EW60" s="1">
-        <v>105.22601</v>
+        <v>105.20584</v>
       </c>
       <c r="EX60" s="1">
-        <v>78.652918</v>
+        <v>83.760932</v>
       </c>
       <c r="EY60" s="1">
-        <v>108.24169</v>
+        <v>108.05951</v>
       </c>
       <c r="EZ60" s="1">
-        <v>69.182329</v>
+        <v>73.29125000000001</v>
       </c>
       <c r="FA60" s="1">
-        <v>68.69300200000001</v>
+        <v>72.56644299999999</v>
       </c>
       <c r="FB60" s="1">
-        <v>-91.37674399999999</v>
+        <v>-91.35771299999999</v>
       </c>
       <c r="FC60" s="1">
-        <v>-91.773456</v>
+        <v>-91.757419</v>
       </c>
       <c r="FD60" s="1">
-        <v>-91.39277899999999</v>
+        <v>-91.36433099999999</v>
       </c>
       <c r="FE60" s="1">
-        <v>-86.21263399999999</v>
+        <v>-85.84356699999999</v>
       </c>
       <c r="FF60" s="1">
-        <v>-135.00367</v>
+        <v>-134.90036</v>
       </c>
       <c r="FG60" s="1">
-        <v>-53.522818</v>
+        <v>-53.522815</v>
       </c>
       <c r="FH60" s="1">
-        <v>-85.61714500000001</v>
+        <v>-85.313372</v>
       </c>
       <c r="FI60" s="1">
-        <v>-69.08017199999999</v>
+        <v>-67.12677499999999</v>
       </c>
       <c r="FJ60" s="1">
-        <v>-69.075717</v>
+        <v>-67.12329699999999</v>
       </c>
       <c r="FK60" s="1">
-        <v>-245.15297</v>
+        <v>-240.35576</v>
       </c>
       <c r="FL60" s="1">
-        <v>-131.81262</v>
+        <v>-128.80743</v>
       </c>
       <c r="FM60" s="1">
-        <v>-245.15281</v>
+        <v>-240.3555</v>
       </c>
       <c r="FN60" s="1">
-        <v>-132.11709</v>
+        <v>-129.11971</v>
       </c>
     </row>
     <row r="61" spans="1:170" s="1" customFormat="1">
